--- a/licensing-service-plan-reference-modifed.xlsx
+++ b/licensing-service-plan-reference-modifed.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonIngildsen\GithubRepo\ms365-license-tools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE51F8-E063-450D-AD7E-49CEC9CEF983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="505">
   <si>
     <t>Productname</t>
   </si>
@@ -41,11 +49,11 @@
     <t>8f0c5670-4e56-4892-b06d-91c085d7004f</t>
   </si>
   <si>
-    <t xml:space="preserve">SPZA (0bfc98ed-1dbc-4a97-b246-701754e48b17)
+    <t>SPZA (0bfc98ed-1dbc-4a97-b246-701754e48b17)
 EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)</t>
   </si>
   <si>
-    <t xml:space="preserve">APP CONNECT (0bfc98ed-1dbc-4a97-b246-701754e48b17)
+    <t>APP CONNECT (0bfc98ed-1dbc-4a97-b246-701754e48b17)
 EXCHANGE FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)</t>
   </si>
   <si>
@@ -88,12 +96,12 @@
     <t>078d2b04-f1bd-4111-bbd4-b4b1b354cef4</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 MFA_PREMIUM (8a256a2b-b617-496d-b51b-e76466e88db0)</t>
   </si>
   <si>
-    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 MICROSOFT AZURE MULTI-FACTOR AUTHENTICATION (8a256a2b-b617-496d-b51b-e76466e88db0)
 CLOUD APP SECURITY DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)</t>
   </si>
@@ -107,13 +115,13 @@
     <t>84a661c4-e949-4bd2-a560-ed7766fcaf2b</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 MFA_PREMIUM (8a256a2b-b617-496d-b51b-e76466e88db0)</t>
   </si>
   <si>
-    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 MICROSOFT AZURE MULTI-FACTOR AUTHENTICATION (8a256a2b-b617-496d-b51b-e76466e88db0)
 CLOUD APP SECURITY DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 AZURE ACTIVE DIRECTORY PREMIUM P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)</t>
@@ -128,14 +136,48 @@
     <t>c52ea49f-fe5d-4e95-93ba-1de91d380f89</t>
   </si>
   <si>
-    <t xml:space="preserve">RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
+    <t>RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)</t>
   </si>
   <si>
-    <t xml:space="preserve">AZURE INFORMATION PROTECTION PREMIUM P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
+    <t>AZURE INFORMATION PROTECTION PREMIUM P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 MICROSOFT AZURE ACTIVE DIRECTORY RIGHTS (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)</t>
   </si>
   <si>
+    <t>COMMON AREA PHONE</t>
+  </si>
+  <si>
+    <t>MCOCAP</t>
+  </si>
+  <si>
+    <t>295a8eb0-f78d-45c7-8b5b-1eed5ed02dff</t>
+  </si>
+  <si>
+    <t>MCOEV (4828c8ec-dc2e-4779-b502-87ac9ce28ab7)
+TEAMS1 (57ff2da0-773e-42df-b2af-ffb7a2317929)
+MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
+  </si>
+  <si>
+    <t>MICROSOFT 365 PHONE SYSTEM (4828c8ec-dc2e-4779-b502-87ac9ce28ab7)
+MICROSOFT TEAMS (57ff2da0-773e-42df-b2af-ffb7a2317929)
+SKYPE FOR BUSINESS ONLINE (PLAN 2) (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
+  </si>
+  <si>
+    <t>COMMUNICATIONS CREDITS</t>
+  </si>
+  <si>
+    <t>MCOPSTNC</t>
+  </si>
+  <si>
+    <t>47794cd0-f0e5-45c5-9033-2eb6b5fc84e0</t>
+  </si>
+  <si>
+    <t>MCOPSTNC (505e180f-f7e0-4b65-91d4-00d670bbd18c)</t>
+  </si>
+  <si>
+    <t>COMMUNICATIONS CREDITS (505e180f-f7e0-4b65-91d4-00d670bbd18c)</t>
+  </si>
+  <si>
     <t>DYNAMICS 365 CUSTOMER ENGAGEMENT PLAN ENTERPRISE EDITION</t>
   </si>
   <si>
@@ -145,7 +187,7 @@
     <t>ea126fc5-a19e-42e2-a731-da9d437bffcf</t>
   </si>
   <si>
-    <t xml:space="preserve">DYN365_ENTERPRISE_P1 (d56f3deb-50d8-465a-bedb-f079817ccac1)
+    <t>DYN365_ENTERPRISE_P1 (d56f3deb-50d8-465a-bedb-f079817ccac1)
 FLOW_DYN_P2 (b650d915-9886-424b-a08d-633cede56f57)
 NBENTERPRISE (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS_DYN_P2 (0b03f40b-c404-40c3-8651-2aceb74365fa)
@@ -155,7 +197,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
+    <t>MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS FOR DYNAMICS 365 (0b03f40b-c404-40c3-8651-2aceb74365fa)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 FLOW FOR DYNAMICS 365 (b650d915-9886-424b-a08d-633cede56f57)
@@ -174,7 +216,7 @@
     <t>749742bf-0d37-4158-a120-33567104deeb</t>
   </si>
   <si>
-    <t xml:space="preserve">DYN365_ENTERPRISE_CUSTOMER_SERVICE (99340b49-fb81-4b1e-976b-8f2ae8e9394f)
+    <t>DYN365_ENTERPRISE_CUSTOMER_SERVICE (99340b49-fb81-4b1e-976b-8f2ae8e9394f)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 NBENTERPRISE (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -183,7 +225,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
+    <t>MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 PROJECT ONLINE ESSENTIALS (1259157c-8581-4875-bca7-2ffb18c51bda)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
@@ -201,12 +243,12 @@
     <t>cc13a803-544e-4464-b4e4-6d6169a138fa</t>
   </si>
   <si>
-    <t xml:space="preserve">DYN365_FINANCIALS_BUSINESS (920656a2-7dd8-4c83-97b6-a356414dbd36)
+    <t>DYN365_FINANCIALS_BUSINESS (920656a2-7dd8-4c83-97b6-a356414dbd36)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)</t>
   </si>
   <si>
-    <t xml:space="preserve">FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
+    <t>FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 POWERAPPS FOR DYNAMICS 365 (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
 DYNAMICS 365 FOR FINANCIALS (920656a2-7dd8-4c83-97b6-a356414dbd36)</t>
   </si>
@@ -220,7 +262,7 @@
     <t>8edc2cf8-6438-4fa9-b6e3-aa1660c640cc</t>
   </si>
   <si>
-    <t xml:space="preserve">DYN365_ENTERPRISE_P1 (d56f3deb-50d8-465a-bedb-f079817ccac1)
+    <t>DYN365_ENTERPRISE_P1 (d56f3deb-50d8-465a-bedb-f079817ccac1)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 NBENTERPRISE (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -229,7 +271,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t xml:space="preserve">DYNAMICS 365 CUSTOMER ENGAGEMENT PLAN (d56f3deb-50d8-465a-bedb-f079817ccac1)
+    <t>DYNAMICS 365 CUSTOMER ENGAGEMENT PLAN (d56f3deb-50d8-465a-bedb-f079817ccac1)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS FOR DYNAMICS 365 (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -247,7 +289,7 @@
     <t>1e1a282c-9c54-43a2-9310-98ef728faace</t>
   </si>
   <si>
-    <t xml:space="preserve">DYN365_ENTERPRISE_SALES (2da8e897-7791-486b-b08f-cc63c8129df7)
+    <t>DYN365_ENTERPRISE_SALES (2da8e897-7791-486b-b08f-cc63c8129df7)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 NBENTERPRISE (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -256,7 +298,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t xml:space="preserve">DYNAMICS 365 FOR SALES (2da8e897-7791-486b-b08f-cc63c8129df7)
+    <t>DYNAMICS 365 FOR SALES (2da8e897-7791-486b-b08f-cc63c8129df7)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS FOR DYNAMICS 365 (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -274,7 +316,7 @@
     <t>8e7a3d30-d97d-43ab-837c-d7701cef83dc</t>
   </si>
   <si>
-    <t xml:space="preserve">DYN365_Enterprise_Talent_Attract_TeamMember (643d201a-9884-45be-962a-06ba97062e5e)
+    <t>DYN365_Enterprise_Talent_Attract_TeamMember (643d201a-9884-45be-962a-06ba97062e5e)
 DYN365_Enterprise_Talent_Onboard_TeamMember (f2f49eef-4b3f-4853-809a-a055c6103fe0)
 DYN365_ENTERPRISE_TEAM_MEMBERS (6a54b05e-4fab-40e7-9828-428db3b336fa)
 Dynamics_365_for_Operations_Team_members (f5aa7b45-8a36-4cd1-bc37-5d06dea98645)
@@ -287,7 +329,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t xml:space="preserve">DYNAMICS 365 FOR TALENT - ATTRACT EXPERIENCE TEAM MEMBER (643d201a-9884-45be-962a-06ba97062e5e)
+    <t>DYNAMICS 365 FOR TALENT - ATTRACT EXPERIENCE TEAM MEMBER (643d201a-9884-45be-962a-06ba97062e5e)
 DYNAMICS 365 FOR TALENT - ONBOARD EXPERIENCE (f2f49eef-4b3f-4853-809a-a055c6103fe0)
 DYNAMICS 365 FOR TEAM MEMBERS (6a54b05e-4fab-40e7-9828-428db3b336fa)
 DYNAMICS_365_FOR_OPERATIONS_TEAM_MEMBERS (f5aa7b45-8a36-4cd1-bc37-5d06dea98645)
@@ -309,7 +351,7 @@
     <t>ccba3cfe-71ef-423a-bd87-b6df3dce59a9</t>
   </si>
   <si>
-    <t xml:space="preserve">DDYN365_CDS_DYN_P2 (d1142cfd-872e-4e77-b6ff-d98ec5a51f66)
+    <t>DDYN365_CDS_DYN_P2 (d1142cfd-872e-4e77-b6ff-d98ec5a51f66)
 DYN365_TALENT_ENTERPRISE (65a1ebf4-6732-4f00-9dcb-3d115ffdeecd)
 Dynamics_365_for_Operations (95d2cd7b-1007-484b-8595-5e97e63fe189)
 Dynamics_365_for_Retail (a9e39199-8369-444b-89c1-5fe65ec45665)
@@ -319,7 +361,7 @@
 POWERAPPS_DYN_P2 (0b03f40b-c404-40c3-8651-2aceb74365fa)</t>
   </si>
   <si>
-    <t xml:space="preserve">COMMON DATA SERVICE (d1142cfd-872e-4e77-b6ff-d98ec5a51f66)
+    <t>COMMON DATA SERVICE (d1142cfd-872e-4e77-b6ff-d98ec5a51f66)
 DYNAMICS 365 FOR TALENT (65a1ebf4-6732-4f00-9dcb-3d115ffdeecd)
 DYNAMICS_365_FOR_OPERATIONS (95d2cd7b-1007-484b-8595-5e97e63fe189)
 DYNAMICS 365 FOR RETAIL (a9e39199-8369-444b-89c1-5fe65ec45665)
@@ -338,7 +380,7 @@
     <t>efccb6f7-5641-4e0e-bd10-b4976e1bf68e</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 INTUNE_A (c1ec4a95-1f05-45b3-a911-aa3fa01094f5)
 MFA_PREMIUM (8a256a2b-b617-496d-b51b-e76466e88db0)
@@ -346,7 +388,7 @@
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)</t>
   </si>
   <si>
-    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 CLOUD APP SECURITY DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 MICROSOFT INTUNE (c1ec4a95-1f05-45b3-a911-aa3fa01094f5)
 MICROSOFT AZURE MULTI-FACTOR AUTHENTICATION (8a256a2b-b617-496d-b51b-e76466e88db0)
@@ -363,7 +405,7 @@
     <t>b05e124f-c7cc-45a0-a6aa-8cf78c946968</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ADALLOM_S_STANDALONE (2e2ddb96-6af9-4b1d-a3f0-d6ecfd22edb2)
 ATA (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -374,7 +416,7 @@
 RMS_S_PREMIUM2 (5689bec4-755d-4753-8b61-40975025187c)</t>
   </si>
   <si>
-    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AZURE ACTIVE DIRECTORY PREMIUM P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 MICROSOFT CLOUD APP SECURITY (2e2ddb96-6af9-4b1d-a3f0-d6ecfd22edb2)
 AZURE ADVANCED THREAT PROTECTION (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -517,13 +559,13 @@
     <t>b17653a4-2443-4e8c-a550-18249dda78bb</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_EDU (3a3976ce-de18-4a87-a78e-5e9245e252df)
+    <t>AAD_EDU (3a3976ce-de18-4a87-a78e-5e9245e252df)
 INTUNE_EDU (da24caf9-af8e-485c-b7c8-e73336da2693)
 INTUNE_A (c1ec4a95-1f05-45b3-a911-aa3fa01094f5)
 WINDOWS_STORE (a420f25f-a7b3-4ff5-a9d0-5d58f73b537d)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory for Education (3a3976ce-de18-4a87-a78e-5e9245e252df)
+    <t>Azure Active Directory for Education (3a3976ce-de18-4a87-a78e-5e9245e252df)
 Intune for Education (da24caf9-af8e-485c-b7c8-e73336da2693)
 Microsoft Intune (c1ec4a95-1f05-45b3-a911-aa3fa01094f5)
 Windows Store Service (a420f25f-a7b3-4ff5-a9d0-5d58f73b537d)</t>
@@ -538,7 +580,7 @@
     <t>4b590615-0888-425a-a965-b3bf7789848d</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t>AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -575,7 +617,7 @@
 YAMMER_EDU (2078e8df-cff6-4290-98cb-5408261a760a)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t>Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Azure Rights Management (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -630,7 +672,7 @@
     <t>e97c048c-37a4-45fb-ab50-922fbf07a370</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t>AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ATA (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -684,7 +726,7 @@
 YAMMER_EDU (2078e8df-cff6-4290-98cb-5408261a760a)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t>Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 Azure Advanced Threat Protection (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -747,7 +789,7 @@
     <t>46c119d4-0379-4a9d-85e4-97c66d3f909e</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t>Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 Azure Advanced Threat Protection (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -810,14 +852,14 @@
     <t>cdd28e44-67e3-425e-be4c-737fab2899d3</t>
   </si>
   <si>
-    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 OFFICE_BUSINESS (094e7854-93fc-4d55-b2c0-3ab5369ebdc1)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 OFFICE 365 BUSINESS (094e7854-93fc-4d55-b2c0-3ab5369ebdc1)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
@@ -839,14 +881,14 @@
     <t>c2273bd0-dff7-4215-9ef5-2c7bcfb06425</t>
   </si>
   <si>
-    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 OFFICESUBSCRIPTION (43de0ff5-c92c-492b-9116-175376d08c38)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 OFFICESUBSCRIPTION (43de0ff5-c92c-492b-9116-175376d08c38)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
@@ -862,7 +904,7 @@
     <t>3b555118-da6a-4418-894f-7df1e2096870</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
 FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
@@ -877,7 +919,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
 MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
@@ -898,7 +940,7 @@
     <t>dab7782a-93b1-4074-8bb1-0e61318bea0b</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
 FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
@@ -913,7 +955,7 @@
 YAMMER_MIDSIZE (41bf139a-4e60-409f-9346-a1361efc6dfb)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
 MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
@@ -937,7 +979,7 @@
     <t>f245ecc8-75af-4f8e-b61f-27d8114de5f3</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -955,7 +997,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -979,7 +1021,7 @@
     <t>ac5cef5d-921b-4f97-9ef3-c99076e5470f</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -997,7 +1039,7 @@
 YAMMER_MIDSIZE (41bf139a-4e60-409f-9346-a1361efc6dfb)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1024,7 +1066,7 @@
     <t>cbdc14ab-d96c-4c30-b9f4-6ada7cdc1d46</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_SMB (de377cbc-0019-4ec2-b77c-3f223947e102)
+    <t>AAD_SMB (de377cbc-0019-4ec2-b77c-3f223947e102)
 BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_ARCHIVE_ADDON (176a09a6-7ec5-4039-ac02-b2791c6ba793)
@@ -1051,7 +1093,7 @@
 ATP_ENTERPRISE (f20fedf3-f3c3-43c3-8267-2bfdd51c0939)</t>
   </si>
   <si>
-    <t xml:space="preserve">AZURE ACTIVE DIRECTORY (de377cbc-0019-4ec2-b77c-3f223947e102)
+    <t>AZURE ACTIVE DIRECTORY (de377cbc-0019-4ec2-b77c-3f223947e102)
 BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE ARCHIVING FOR EXCHANGE ONLINE (176a09a6-7ec5-4039-ac02-b2791c6ba793)
@@ -1078,6 +1120,21 @@
 Office 365 Advanced Threat Protection (Plan 1) (f20fedf3-f3c3-43c3-8267-2bfdd51c0939)</t>
   </si>
   <si>
+    <t>MICROSOFT 365 DOMESTIC CALLING PLAN (120 Minutes)</t>
+  </si>
+  <si>
+    <t>MCOPSTN_5</t>
+  </si>
+  <si>
+    <t>11dee6af-eca8-419f-8061-6864517c1875</t>
+  </si>
+  <si>
+    <t>MCOPSTN5 (54a152dc-90de-4996-93d2-bc47e670fc06)</t>
+  </si>
+  <si>
+    <t>MICROSOFT 365 DOMESTIC CALLING PLAN (120 min) (54a152dc-90de-4996-93d2-bc47e670fc06)</t>
+  </si>
+  <si>
     <t>MICROSOFT 365 E3</t>
   </si>
   <si>
@@ -1087,7 +1144,7 @@
     <t>05e9a617-0261-4cee-bb44-138d3ef5d965</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -1111,7 +1168,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 CLOUD APP SECURITY DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -1144,7 +1201,7 @@
     <t>06ebc4ee-1bb5-47dd-8120-11324bc54e06</t>
   </si>
   <si>
-    <t xml:space="preserve">MCOMEETADV (3e26ee1f-8a5f-4d52-aee2-b81ce45c8f40)
+    <t>MCOMEETADV (3e26ee1f-8a5f-4d52-aee2-b81ce45c8f40)
 AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ATA (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -1191,7 +1248,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">Audio Conferencing (3e26ee1f-8a5f-4d52-aee2-b81ce45c8f40)
+    <t>Audio Conferencing (3e26ee1f-8a5f-4d52-aee2-b81ce45c8f40)
 Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 Azure Advanced Threat Protection (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -1247,7 +1304,7 @@
     <t>d61d61cc-f992-433f-a577-5bd016037eeb</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -1261,7 +1318,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
 Microsoft Azure Active Directory Rights (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -1284,7 +1341,7 @@
     <t>ca9d1dd9-dfe9-4fef-b97c-9bc1ea3c3658</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
@@ -1300,7 +1357,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1(6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Cloud App Security Discovery (932ad362-64a8-4783-9106-97849a1a30b9)
 Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
@@ -1325,7 +1382,7 @@
     <t>184efa21-98c3-4e5d-95ab-d07053a96e67</t>
   </si>
   <si>
-    <t xml:space="preserve">RMS_S_PREMIUM2 (5689bec4-755d-4753-8b61-40975025187c)
+    <t>RMS_S_PREMIUM2 (5689bec4-755d-4753-8b61-40975025187c)
 LOCKBOX_ENTERPRISE (9f431833-0334-42de-a7dc-70aa40db46db)
 INFORMATION_BARRIERS (c4801e8a-cb58-4c35-aca6-f2dcc106f287)
 MIP_S_CLP2 (efb0351d-3b08-4503-993d-383af8de41e3)
@@ -1335,7 +1392,7 @@
 PREMIUM_ENCRYPTION (617b097b-4b93-4ede-83de-5f075bb5fb2f)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Information Protection Premium P2 (5689bec4-755d-4753-8b61-40975025187c)
+    <t>Azure Information Protection Premium P2 (5689bec4-755d-4753-8b61-40975025187c)
 Customer Lockbox (9f431833-0334-42de-a7dc-70aa40db46db)
 Information Barriers (c4801e8a-cb58-4c35-aca6-f2dcc106f287)
 Information Protection for Office 365 - Premium (efb0351d-3b08-4503-993d-383af8de41e3)
@@ -1354,7 +1411,7 @@
     <t>26124093-3d78-432b-b5dc-48bf992543d5</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
+    <t>AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ATA (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
 ADALLOM_S_STANDALONE (2e2ddb96-6af9-4b1d-a3f0-d6ecfd22edb2)
 WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
@@ -1363,7 +1420,7 @@
 SAFEDOCS (bf6f5520-59e3-4f82-974b-7dbbc4fd27c7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
+    <t>Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 Azure Advanced Threat Protection (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
 Microsoft Cloud App Security (2e2ddb96-6af9-4b1d-a3f0-d6ecfd22edb2)
 Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
@@ -1381,13 +1438,13 @@
     <t>44ac31e7-2999-4304-ad94-c948886741d4</t>
   </si>
   <si>
-    <t xml:space="preserve">WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
+    <t>WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
 ATP_ENTERPRISE (f20fedf3-f3c3-43c3-8267-2bfdd51c0939)
 THREAT_INTELLIGENCE (8e0c0a52-6a6c-4d40-8370-dd62790dcd70)
 SAFEDOCS (bf6f5520-59e3-4f82-974b-7dbbc4fd27c7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
+    <t>Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
 Office 365 Advanced Threat Protection (Plan 1) (f20fedf3-f3c3-43c3-8267-2bfdd51c0939)
 Office 365 Advanced Threat Protection (Plan 2) (8e0c0a52-6a6c-4d40-8370-dd62790dcd70)
 Office 365 SafeDocs (bf6f5520-59e3-4f82-974b-7dbbc4fd27c7)</t>
@@ -1402,7 +1459,7 @@
     <t>44575883-256e-4a79-9da4-ebe9acabe2b2</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 RMS_S_ENTERPRISE_GOV (6a76346d-5d6e-4051-9fe3-ed3f312b5597)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
@@ -1418,7 +1475,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Azure Rights Management (6a76346d-5d6e-4051-9fe3-ed3f312b5597)
 Cloud App Security Discovery (932ad362-64a8-4783-9106-97849a1a30b9)
@@ -1443,7 +1500,7 @@
     <t>66b55226-6b4f-492c-910c-a3b7a3c9d993</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
@@ -1471,7 +1528,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t>Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Azure Rights Management (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 Cloud App Security Discovery (932ad362-64a8-4783-9106-97849a1a30b9)
@@ -1625,6 +1682,21 @@
     <t>985fcb26-7b94-475b-b512-89356697be71</t>
   </si>
   <si>
+    <t>MICROSOFT 365 PHONE SYSTEM - VIRTUAL USER</t>
+  </si>
+  <si>
+    <t>PHONESYSTEM_VIRTUALUSER</t>
+  </si>
+  <si>
+    <t>440eaaa8-b3e0-484b-a8be-62870b9ba70a</t>
+  </si>
+  <si>
+    <t>MCOEV_VIRTUALUSER (f47330e9-c134-43b3-9993-e7f004506889)</t>
+  </si>
+  <si>
+    <t>MICROSOFT 365 PHONE SYSTEM VIRTUAL USER (f47330e9-c134-43b3-9993-e7f004506889)</t>
+  </si>
+  <si>
     <t>Microsoft Defender Advanced Threat Protection</t>
   </si>
   <si>
@@ -1634,11 +1706,11 @@
     <t>111046dd-295b-4d6d-9724-d52ac90bd1f2</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)
+    <t>EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)
 WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)</t>
   </si>
   <si>
-    <t xml:space="preserve">Exchange Foundation (113feb6c-3fe4-4440-bddc-54d774bf0318)
+    <t>Exchange Foundation (113feb6c-3fe4-4440-bddc-54d774bf0318)
 Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)</t>
   </si>
   <si>
@@ -1651,12 +1723,12 @@
     <t>906af65a-2970-46d5-9b58-4e9aa50f0657</t>
   </si>
   <si>
-    <t xml:space="preserve">CRMPLAN2 (bf36ca64-95c6-4918-9275-eb9f4ce2c04f)
+    <t>CRMPLAN2 (bf36ca64-95c6-4918-9275-eb9f4ce2c04f)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT DYNAMICS CRM ONLINE BASIC(bf36ca64-95c6-4918-9275-eb9f4ce2c04f)
+    <t>MICROSOFT DYNAMICS CRM ONLINE BASIC(bf36ca64-95c6-4918-9275-eb9f4ce2c04f)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 POWERAPPS FOR DYNAMICS 365 (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)</t>
   </si>
@@ -1670,14 +1742,14 @@
     <t>d17b27af-3f49-4822-99f9-56a661538792</t>
   </si>
   <si>
-    <t xml:space="preserve">CRMSTANDARD (f9646fb2-e3b2-4309-95de-dc4833737456)
+    <t>CRMSTANDARD (f9646fb2-e3b2-4309-95de-dc4833737456)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 MDM_SALES_COLLABORATION (3413916e-ee66-4071-be30-6f94d4adfeda)
 NBPROFESSIONALFORCRM (3e58e97c-9abe-ebab-cd5f-d543d1529634)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT DYNAMICS CRM ONLINE PROFESSIONAL(f9646fb2-e3b2-4309-95de-dc4833737456)
+    <t>MICROSOFT DYNAMICS CRM ONLINE PROFESSIONAL(f9646fb2-e3b2-4309-95de-dc4833737456)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 MICROSOFT DYNAMICS MARKETING SALES COLLABORATION - ELIGIBILITY CRITERIA APPLY (3413916e-ee66-4071-be30-6f94d4adfeda)
 MICROSOFT SOCIAL ENGAGEMENT PROFESSIONAL - ELIGIBILITY CRITERIA APPLY (3e58e97c-9abe-ebab-cd5f-d543d1529634)
@@ -1723,7 +1795,7 @@
     <t>a4585165-0533-458a-97e3-c400570268c4</t>
   </si>
   <si>
-    <t xml:space="preserve">AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t>AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 LOCKBOX_ENTERPRISE (9f431833-0334-42de-a7dc-70aa40db46db)
 EducationAnalyticsP1 (a9b86446-fa4e-498f-a92a-41b447e03337)
@@ -1770,7 +1842,7 @@
 YAMMER_EDU (2078e8df-cff6-4290-98cb-5408261a760a)</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t>Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 Azure Rights Management (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 Customer Lockbox (9f431833-0334-42de-a7dc-70aa40db46db)
 Education Analytics (a9b86446-fa4e-498f-a92a-41b447e03337)
@@ -1835,7 +1907,7 @@
     <t>1b1b1f7a-8355-43b6-829f-336cfccb744c</t>
   </si>
   <si>
-    <t xml:space="preserve">LOCKBOX_ENTERPRISE (9f431833-0334-42de-a7dc-70aa40db46db)
+    <t>LOCKBOX_ENTERPRISE (9f431833-0334-42de-a7dc-70aa40db46db)
 INFORMATION_BARRIERS (c4801e8a-cb58-4c35-aca6-f2dcc106f287)
 MIP_S_CLP2 (efb0351d-3b08-4503-993d-383af8de41e3)
 EQUIVIO_ANALYTICS (4de31727-a228-4ec3-a5bf-8e45b5ca48cc)
@@ -1843,7 +1915,7 @@
 PREMIUM_ENCRYPTION (617b097b-4b93-4ede-83de-5f075bb5fb2f)</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer Lockbox (9f431833-0334-42de-a7dc-70aa40db46db)
+    <t>Customer Lockbox (9f431833-0334-42de-a7dc-70aa40db46db)
 Information Barriers (c4801e8a-cb58-4c35-aca6-f2dcc106f287)
 Information Protection for Office 365 - Premium (efb0351d-3b08-4503-993d-383af8de41e3)
 Office 365 Advanced eDiscovery (4de31727-a228-4ec3-a5bf-8e45b5ca48cc)
@@ -1875,7 +1947,7 @@
     <t>18181a46-0d4e-45cd-891e-60aabd171b4e</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1892,7 +1964,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653))</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1918,7 +1990,7 @@
     <t>6634e0ce-1a9f-428c-a498-f84ec7b8aa2e</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1(5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1(5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1934,7 +2006,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1959,7 +2031,7 @@
     <t>6fd2c87f-b296-42f0-b197-1e91e994b900</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
+    <t>BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW_O365_P2 (76846ad7-7776-4c40-a281-a386362dd1b9)
@@ -1977,7 +2049,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
+    <t>BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 2)(efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW FOR OFFICE 365 (76846ad7-7776-4c40-a281-a386362dd1b9)
@@ -2004,7 +2076,7 @@
     <t>189a915c-fe4f-4ffa-bde4-85b9628d07a0</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
+    <t>BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW_O365_P2 (76846ad7-7776-4c40-a281-a386362dd1b9)
 FORMS_PLAN_E5 (e212cbc7-0961-4c40-9825-01117710dcb1)
@@ -2019,7 +2091,7 @@
 TEAMS1 (57ff2da0-773e-42df-b2af-ffb7a2317929)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
+    <t>BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 EXCHANGE ONLINE (PLAN 2)(efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW FOR OFFICE 365 (76846ad7-7776-4c40-a281-a386362dd1b9)
 MICROSOFT FORMS (PLAN E5)(e212cbc7-0961-4c40-9825-01117710dcb1)
@@ -2043,7 +2115,7 @@
     <t>b107e5a3-3e60-4c0d-a184-a7e4395eb44c</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
+    <t>EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 STREAM_O365_E3 (9e700747-8b1d-45e5-ab8d-ef187ceec156)
 TEAMS_AR_DOD (fd500458-c24c-478e-856c-a6067a8376cd)
@@ -2053,7 +2125,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t xml:space="preserve">Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
+    <t>Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
 Microsoft Azure Active Directory Rights (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 Microsoft Stream for O365 E3 SKU (9e700747-8b1d-45e5-ab8d-ef187ceec156)
 Microsoft Teams for DOD (AR) (fd500458-c24c-478e-856c-a6067a8376cd)
@@ -2072,7 +2144,7 @@
     <t>aea38a85-9bd5-4981-aa00-616b411205bf</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
+    <t>EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 PROJECTWORKMANAGEMENT (b737dad2-2f6c-4c65-90e3-ca563267e8b9)
 STREAM_O365_E3 (9e700747-8b1d-45e5-ab8d-ef187ceec156)
@@ -2083,7 +2155,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t xml:space="preserve">Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
+    <t>Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
 Microsoft Azure Active Directory Rights (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 Microsoft Planner (b737dad2-2f6c-4c65-90e3-ca563267e8b9)
 Microsoft Stream for O365 E3 SKU (9e700747-8b1d-45e5-ab8d-ef187ceec156)
@@ -2103,7 +2175,7 @@
     <t>1392051d-0cb9-4b7a-88d5-621fee5e8711</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
+    <t>BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW_O365_P2 (76846ad7-7776-4c40-a281-a386362dd1b9)
@@ -2122,7 +2194,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
+    <t>BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 2)(efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW FOR OFFICE 365 (76846ad7-7776-4c40-a281-a386362dd1b9)
@@ -2150,7 +2222,7 @@
     <t>c7df2760-2c81-4ef7-b578-5b5392b571df</t>
   </si>
   <si>
-    <t xml:space="preserve">ADALLOM_S_O365 (8c098270-9dd4-4350-9b30-ba4703f3b36b)
+    <t>ADALLOM_S_O365 (8c098270-9dd4-4350-9b30-ba4703f3b36b)
 BI_AZURE_P2 (70d33638-9c74-4d01-bfd3-562de28bd4ba)
 BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -2177,7 +2249,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">OFFICE 365 CLOUD APP SECURITY (8c098270-9dd4-4350-9b30-ba4703f3b36b)
+    <t>OFFICE 365 CLOUD APP SECURITY (8c098270-9dd4-4350-9b30-ba4703f3b36b)
 POWER BI PRO (70d33638-9c74-4d01-bfd3-562de28bd4ba)
 BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -2213,7 +2285,7 @@
     <t>26d45bd9-adf1-46cd-a9e1-51e9a5524128</t>
   </si>
   <si>
-    <t xml:space="preserve">ADALLOM_S_O365 (8c098270-9dd4-4350-9b30-ba4703f3b36b)
+    <t>ADALLOM_S_O365 (8c098270-9dd4-4350-9b30-ba4703f3b36b)
 BI_AZURE_P2 (70d33638-9c74-4d01-bfd3-562de28bd4ba)
 BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -2238,7 +2310,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">OFFICE 365 CLOUD APP SECURITY (8c098270-9dd4-4350-9b30-ba4703f3b36b)
+    <t>OFFICE 365 CLOUD APP SECURITY (8c098270-9dd4-4350-9b30-ba4703f3b36b)
 POWER BI PRO (70d33638-9c74-4d01-bfd3-562de28bd4ba)
 BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -2263,7 +2335,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>OFFICE 365 F1</t>
+    <t>OFFICE 365 F3</t>
   </si>
   <si>
     <t>DESKLESSPACK</t>
@@ -2272,42 +2344,7 @@
     <t>4b585984-651b-448a-9e53-3b10f069cf7f</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
-Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
-EXCHANGE_S_DESKLESS (4a82b400-a79f-41a4-b4e2-e94f5787b113)
-FLOW_O365_S1 (bd91b1a4-9f94-4ecf-b45b-3a65e5c8128a)
-FORMS_PLAN_K (f07046bd-2a3c-4b96-b0be-dea79d7cbfb8)
-MCOIMP (afc06cb0-b4f4-4473-8286-d644f70d8faf)
-OFFICEMOBILE_SUBSCRIPTION (c63d4d19-e8cb-460e-b37c-4d6c34603745)
-POWERAPPS_O365_S1 (e0287f9f-e222-4f98-9a83-f379e249159a)
-SHAREPOINTDESKLESS (902b47e5-dcb2-4fdc-858b-c63a90a2bdb9)
-SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
-STREAM_O365_K (3ffba0d2-38e5-4d5e-8ec0-98f2b05c09d9)
-SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)
-TEAMS1 (57ff2da0-773e-42df-b2af-ffb7a2317929)
-YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
-MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
-EXCHANGE ONLINE KIOSK (4a82b400-a79f-41a4-b4e2-e94f5787b113)
-FLOW FOR OFFICE 365 K1 (bd91b1a4-9f94-4ecf-b45b-3a65e5c8128a)
-MICROSOFT FORMS (PLAN K) (f07046bd-2a3c-4b96-b0be-dea79d7cbfb8)
-SKYPE FOR BUSINESS ONLINE (PLAN 1) (afc06cb0-b4f4-4473-8286-d644f70d8faf)
-OFFICE MOBILE APPS FOR OFFICE 365 (c63d4d19-e8cb-460e-b37c-4d6c34603745)
-POWERAPPS FOR OFFICE 365 K1 (e0287f9f-e222-4f98-9a83-f379e249159a)
-SHAREPOINT ONLINE KIOSK (902b47e5-dcb2-4fdc-858b-c63a90a2bdb9)
-OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
-MICROSOFT STREAM FOR O365 K SKU (3ffba0d2-38e5-4d5e-8ec0-98f2b05c09d9)
-SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)
-TEAMS1 (57ff2da0-773e-42df-b2af-ffb7a2317929)
-YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
-  </si>
-  <si>
-    <t>OFFICE 365 F3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
+    <t>BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
 CDS_O365_F1 (90db65a7-bf11-4904-a79f-ef657605145b)
 DESKLESS (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 DYN365_CDS_O365_F1 (ca6e61ec-d4f4-41eb-8b88-d96e0e14323f)
@@ -2333,7 +2370,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t xml:space="preserve">BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
+    <t>BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
 COMMON DATA SERVICE - O365 F1 (ca6e61ec-d4f4-41eb-8b88-d96e0e14323f)
 COMMON DATA SERVICE FOR TEAMS_F1 (90db65a7-bf11-4904-a79f-ef657605145b)
 EXCHANGE ONLINE KIOSK (4a82b400-a79f-41a4-b4e2-e94f5787b113)
@@ -2368,7 +2405,7 @@
     <t>04a7fb0d-32e0-4241-b4f5-3f7618cd1162</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE_S_STANDARD_MIDMARKET (fc52cc4b-ed7d-472d-bbe7-b081c23ecc56)
+    <t>EXCHANGE_S_STANDARD_MIDMARKET (fc52cc4b-ed7d-472d-bbe7-b081c23ecc56)
 MCOSTANDARD_MIDMARKET (b2669e95-76ef-4e7e-a367-002f60a39f3e)
 OFFICESUBSCRIPTION (43de0ff5-c92c-492b-9116-175376d08c38)
 SHAREPOINTENTERPRISE_MIDMARKET (6b5b6a67-fc72-4a1f-a2b5-beecf05de761)
@@ -2377,7 +2414,7 @@
 YAMMER_MIDSIZE (41bf139a-4e60-409f-9346-a1361efc6dfb)</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE ONLINE PLAN 1(fc52cc4b-ed7d-472d-bbe7-b081c23ecc56)
+    <t>EXCHANGE ONLINE PLAN 1(fc52cc4b-ed7d-472d-bbe7-b081c23ecc56)
 SKYPE FOR BUSINESS ONLINE (PLAN 2) FOR MIDSIZE(b2669e95-76ef-4e7e-a367-002f60a39f3e)
 OFFICESUBSCRIPTION (43de0ff5-c92c-492b-9116-175376d08c38)
 SHAREPOINTENTERPRISE_MIDMARKET (6b5b6a67-fc72-4a1f-a2b5-beecf05de761)
@@ -2395,13 +2432,13 @@
     <t>bd09678e-b83c-4d3f-aaba-3dad4abd128b</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE_L_STANDARD (d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
+    <t>EXCHANGE_L_STANDARD (d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
 MCOLITE (70710b6b-3ab4-4a38-9f6d-9f169461650a)
 SHAREPOINTLITE (a1f3d0a8-84c0-4ae0-bae4-685917b8ab48)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE ONLINE (P1)(d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
+    <t>EXCHANGE ONLINE (P1)(d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
 SKYPE FOR BUSINESS ONLINE (PLAN P1) (70710b6b-3ab4-4a38-9f6d-9f169461650a)
 SHAREPOINTLITE (a1f3d0a8-84c0-4ae0-bae4-685917b8ab48)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
@@ -2416,14 +2453,14 @@
     <t>fc14ec4a-4169-49a4-a51e-2c852931814b</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE_L_STANDARD (d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
+    <t>EXCHANGE_L_STANDARD (d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
 MCOLITE (70710b6b-3ab4-4a38-9f6d-9f169461650a)
 OFFICE_PRO_PLUS_SUBSCRIPTION_SMBIZ (8ca59559-e2ca-470b-b7dd-afd8c0dee963)
 SHAREPOINTLITE (a1f3d0a8-84c0-4ae0-bae4-685917b8ab48)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE ONLINE (P1)(d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
+    <t>EXCHANGE ONLINE (P1)(d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
 SKYPE FOR BUSINESS ONLINE (PLAN P1) (70710b6b-3ab4-4a38-9f6d-9f169461650a)
 OFFICE_PRO_PLUS_SUBSCRIPTION_SMBIZ (8ca59559-e2ca-470b-b7dd-afd8c0dee963)
 SHAREPOINTLITE (a1f3d0a8-84c0-4ae0-bae4-685917b8ab48)
@@ -2439,13 +2476,13 @@
     <t>e6778190-713e-4e4f-9119-8b8238de25df</t>
   </si>
   <si>
-    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
@@ -2460,23 +2497,14 @@
     <t>ed01faf2-1d88-4947-ae91-45ca18703a96</t>
   </si>
   <si>
-    <t xml:space="preserve">ONEDRIVEENTERPRISE (afcafa6a-d966-4462-918c-ec0b4e0fe642)
+    <t>ONEDRIVEENTERPRISE (afcafa6a-d966-4462-918c-ec0b4e0fe642)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t xml:space="preserve">ONEDRIVEENTERPRISE (afcafa6a-d966-4462-918c-ec0b4e0fe642)
+    <t>ONEDRIVEENTERPRISE (afcafa6a-d966-4462-918c-ec0b4e0fe642)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t>POWER APPS PER USER PLAN</t>
-  </si>
-  <si>
-    <t>POWERAPPS_PER_USER</t>
-  </si>
-  <si>
-    <t>b30411f5-fea1-4a59-9ad9-3db7c7ead579</t>
-  </si>
-  <si>
     <t>POWER BI (FREE)</t>
   </si>
   <si>
@@ -2498,11 +2526,11 @@
     <t>45bc2c81-6072-436a-9b0b-3b12eefbc402</t>
   </si>
   <si>
-    <t xml:space="preserve">BI_AZURE_P1 (2125cfd7-2110-4567-83c4-c1cd5275163d)
+    <t>BI_AZURE_P1 (2125cfd7-2110-4567-83c4-c1cd5275163d)
 SQL_IS_SSIM (fc0a60aa-feee-4746-a0e3-aecfe81a38dd)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT POWER BI REPORTING AND ANALYTICS PLAN 1 (2125cfd7-2110-4567-83c4-c1cd5275163d)
+    <t>MICROSOFT POWER BI REPORTING AND ANALYTICS PLAN 1 (2125cfd7-2110-4567-83c4-c1cd5275163d)
 MICROSOFT POWER BI INFORMATION SERVICES PLAN 1(fc0a60aa-feee-4746-a0e3-aecfe81a38dd)</t>
   </si>
   <si>
@@ -2542,14 +2570,14 @@
     <t>776df282-9fc0-4862-99e2-70e561b9909e</t>
   </si>
   <si>
-    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 PROJECT_ESSENTIALS (1259157c-8581-4875-bca7-2ffb18c51bda)
 SHAREPOINTENTERPRISE (5dbe027f-2339-4123-9542-606e4d348a72)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 PROJECT ONLINE ESSENTIALS (1259157c-8581-4875-bca7-2ffb18c51bda)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
@@ -2565,13 +2593,13 @@
     <t>09015f9f-377f-4538-bbb5-f75ceb09358a</t>
   </si>
   <si>
-    <t xml:space="preserve">PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
+    <t>PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINTENTERPRISE (5dbe027f-2339-4123-9542-606e4d348a72)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t xml:space="preserve">PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
+    <t>PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
@@ -2586,14 +2614,14 @@
     <t>2db84718-652c-47a7-860c-f10d8abbdae3</t>
   </si>
   <si>
-    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINTENTERPRISE (5dbe027f-2339-4123-9542-606e4d348a72)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
@@ -2618,7 +2646,7 @@
     <t>f82a60b8-1ee3-4cfb-a4fe-1c6a53c2656c</t>
   </si>
   <si>
-    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINTENTERPRISE (5dbe027f-2339-4123-9542-606e4d348a72)
@@ -2626,7 +2654,7 @@
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
@@ -2730,12 +2758,24 @@
     <t>54a152dc-90de-4996-93d2-bc47e670fc06</t>
   </si>
   <si>
-    <t>MCOPSTN5 (54a152dc-90de-4996-93d2-bc47e670fc06)</t>
-  </si>
-  <si>
     <t>DOMESTIC CALLING PLAN (54a152dc-90de-4996-93d2-bc47e670fc06)</t>
   </si>
   <si>
+    <t>TELSTRA CALLING FOR O365</t>
+  </si>
+  <si>
+    <t>MCOPSTNEAU2</t>
+  </si>
+  <si>
+    <t>de3312e1-c7b0-46e6-a7c3-a515ff90bc86</t>
+  </si>
+  <si>
+    <t>MCOPSTNEAU (7861360b-dc3b-4eba-a3fc-0d323a035746)</t>
+  </si>
+  <si>
+    <t>AUSTRALIA CALLING PLAN (7861360b-dc3b-4eba-a3fc-0d323a035746)</t>
+  </si>
+  <si>
     <t>VISIO ONLINE PLAN 1</t>
   </si>
   <si>
@@ -2745,7 +2785,7 @@
     <t>4b244418-9658-4451-a2b8-b5e2b364e9bd</t>
   </si>
   <si>
-    <t xml:space="preserve">ONEDRIVE_BASIC (da792a53-cbc0-4184-a10d-e544dd34b3c1)
+    <t>ONEDRIVE_BASIC (da792a53-cbc0-4184-a10d-e544dd34b3c1)
 VISIOONLINE (2bdbaf8f-738f-4ac7-9234-3c3ee2ce7d0f)</t>
   </si>
   <si>
@@ -2758,7 +2798,7 @@
     <t>c5928f49-12ba-48f7-ada3-0d743a3601d5</t>
   </si>
   <si>
-    <t xml:space="preserve">ONEDRIVE_BASIC (da792a53-cbc0-4184-a10d-e544dd34b3c1)
+    <t>ONEDRIVE_BASIC (da792a53-cbc0-4184-a10d-e544dd34b3c1)
 VISIO_CLIENT_SUBSCRIPTION (663a804f-1c30-4ff0-9915-9db84f0d1cea)
 VISIOONLINE (2bdbaf8f-738f-4ac7-9234-3c3ee2ce7d0f)</t>
   </si>
@@ -2787,12 +2827,12 @@
     <t>488ba24a-39a9-4473-8ee5-19291e71b002</t>
   </si>
   <si>
-    <t xml:space="preserve">EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)
+    <t>EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)
 WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
 Virtualization Rights for Windows 10 (E3/E5+VDA) (e7c91390-7625-45be-94e0-e16907e03118)</t>
   </si>
   <si>
-    <t xml:space="preserve">Exchange Foundation (113feb6c-3fe4-4440-bddc-54d774bf0318)
+    <t>Exchange Foundation (113feb6c-3fe4-4440-bddc-54d774bf0318)
 Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
 Windows 10 Enterprise (New) (e7c91390-7625-45be-94e0-e16907e03118)</t>
   </si>
@@ -2812,12 +2852,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2838,1812 +2882,2186 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="67.85546875" customWidth="1"/>
+    <col min="5" max="5" width="88.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="E21" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="0" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="B22" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D22" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E22" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="0" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C23" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="C24" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="D24" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="D28" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="E28" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="0" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="B29" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="C29" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="D29" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="E29" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="0" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="B30" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="C30" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="D30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.5">
+      <c r="A31" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B31" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="C31" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="E31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="0" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="409.5">
+      <c r="A32" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="E32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="0" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="B33" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="C33" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="D33" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="E33" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="0" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="C34" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="B35" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="C35" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="D35" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="E35" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="B36" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="C36" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="D36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="E36" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="0" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="C37" t="s">
         <v>172</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="D37" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="E37" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="0" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="B38" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="C38" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="D38" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="E38" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="0" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5" ht="390">
+      <c r="A40" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>192</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>199</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>202</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>207</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>210</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>211</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>214</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>215</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>216</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>219</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>224</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>226</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>227</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>229</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>230</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="D50" t="s">
         <v>237</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="E50" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="0" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>239</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="B51" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="C51" t="s">
         <v>241</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="D51" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="E51" t="s">
         <v>243</v>
       </c>
-      <c r="D52" s="0" t="s">
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>244</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="B52" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="C52" t="s">
         <v>246</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="D52" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="E52" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>249</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B53" t="s">
         <v>250</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C53" t="s">
         <v>251</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D53" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>252</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="B54" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="C54" t="s">
         <v>254</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="D54" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="0" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>256</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="B55" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C55" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="D55" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="E55" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="0" t="s">
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="B56" t="s">
         <v>262</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="C56" t="s">
         <v>263</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="D56" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="B57" t="s">
         <v>265</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="C57" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="D57" t="s">
         <v>267</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="E57" t="s">
         <v>268</v>
       </c>
-      <c r="D59" s="0" t="s">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>269</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="B58" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="C58" t="s">
         <v>271</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="D58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>272</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="B59" t="s">
         <v>273</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="C59" t="s">
         <v>274</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="D59" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="B60" t="s">
         <v>276</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C60" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="D60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>278</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="B61" t="s">
         <v>279</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="C61" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="D61" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>282</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>283</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>284</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>286</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>287</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>288</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="D63" t="s">
         <v>289</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="E63" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>291</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>293</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>294</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
         <v>296</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>297</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="D65" t="s">
         <v>299</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="E65" t="s">
         <v>300</v>
       </c>
-      <c r="C66" s="0" t="s">
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
         <v>301</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="B66" t="s">
         <v>302</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="C66" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="D66" t="s">
         <v>304</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="E66" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="0" t="s">
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
         <v>306</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="B67" t="s">
         <v>307</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="C67" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" t="s">
         <v>309</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="F67" t="s">
         <v>310</v>
       </c>
-      <c r="C68" s="0" t="s">
+    </row>
+    <row r="68" spans="1:6" ht="409.5">
+      <c r="A68" t="s">
         <v>311</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="B68" t="s">
         <v>312</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="C68" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="D68" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="E68" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="0" t="s">
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
         <v>316</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="B69" t="s">
         <v>317</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="C69" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="D69" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
         <v>319</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>320</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>321</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>322</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>325</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>326</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>327</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
         <v>329</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>330</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>331</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>332</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
         <v>334</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>335</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>336</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>337</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
         <v>339</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>340</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>341</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>342</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>345</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>346</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>347</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
         <v>349</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>351</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>352</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
         <v>354</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>355</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>356</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>357</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
         <v>359</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="D78" s="0" t="s">
+      <c r="B78" t="s">
         <v>360</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="C78" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="D78" t="s">
         <v>362</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="E78" t="s">
         <v>363</v>
       </c>
-      <c r="C79" s="0" t="s">
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
         <v>364</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="B79" t="s">
         <v>365</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="C79" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="D79" t="s">
         <v>367</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="E79" t="s">
         <v>368</v>
       </c>
-      <c r="C80" s="0" t="s">
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
         <v>369</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="B80" t="s">
         <v>370</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="C80" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="D80" t="s">
         <v>372</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="E80" t="s">
         <v>373</v>
       </c>
-      <c r="C81" s="0" t="s">
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
         <v>374</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="B81" t="s">
         <v>375</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="C81" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="D81" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="E81" t="s">
         <v>378</v>
       </c>
-      <c r="C82" s="0" t="s">
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
         <v>379</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="B82" t="s">
         <v>380</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="C82" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="D82" t="s">
         <v>382</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="E82" t="s">
         <v>383</v>
       </c>
-      <c r="C83" s="0" t="s">
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="B83" t="s">
         <v>385</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="C83" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="D83" t="s">
         <v>387</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="E83" t="s">
         <v>388</v>
       </c>
-      <c r="C84" s="0" t="s">
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="B84" t="s">
         <v>390</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C84" t="s">
         <v>391</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="D84" t="s">
         <v>392</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="E84" t="s">
         <v>393</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
         <v>394</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B85" t="s">
         <v>395</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C85" t="s">
         <v>396</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D85" t="s">
         <v>397</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E85" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
         <v>399</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B86" t="s">
         <v>400</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C86" t="s">
         <v>401</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D86" t="s">
         <v>402</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E86" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
         <v>404</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B87" t="s">
         <v>405</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C87" t="s">
         <v>406</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D87" t="s">
         <v>407</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="E87" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
         <v>408</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B88" t="s">
         <v>409</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C88" t="s">
         <v>410</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D88" t="s">
         <v>411</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E88" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
         <v>413</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B89" t="s">
         <v>414</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C89" t="s">
         <v>415</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D89" t="s">
         <v>416</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E89" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
         <v>418</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B90" t="s">
         <v>419</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C90" t="s">
         <v>420</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D90" t="s">
         <v>421</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+      <c r="B91" t="s">
         <v>423</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="C91" t="s">
         <v>424</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="D91" t="s">
         <v>425</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+      <c r="E91" t="s">
         <v>426</v>
       </c>
-      <c r="B93" s="0" t="s">
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
         <v>427</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="B92" t="s">
         <v>428</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="C92" t="s">
         <v>429</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="D92" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="E92" t="s">
         <v>431</v>
       </c>
-      <c r="B94" s="0" t="s">
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>432</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="B93" t="s">
         <v>433</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="C93" t="s">
         <v>434</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+      <c r="D93" t="s">
         <v>435</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="E93" t="s">
         <v>436</v>
       </c>
-      <c r="C95" s="0" t="s">
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
         <v>437</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="B94" t="s">
         <v>438</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="C94" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="D94" t="s">
+        <v>430</v>
+      </c>
+      <c r="E94" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
         <v>440</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B95" t="s">
         <v>441</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C95" t="s">
         <v>442</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D95" t="s">
         <v>443</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E95" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
         <v>445</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B96" t="s">
         <v>446</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C96" t="s">
         <v>447</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D96" t="s">
         <v>448</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E96" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="B97" t="s">
         <v>450</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C97" t="s">
         <v>451</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="D97" t="s">
         <v>452</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="E97" t="s">
         <v>453</v>
       </c>
-      <c r="E98" s="0" t="s">
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+      <c r="B98" t="s">
         <v>455</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C98" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="D98" t="s">
         <v>457</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="E98" t="s">
         <v>458</v>
       </c>
-      <c r="E99" s="0" t="s">
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+      <c r="B99" t="s">
         <v>460</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C99" t="s">
         <v>461</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="D99" t="s">
         <v>462</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="E99" t="s">
         <v>463</v>
       </c>
-      <c r="E100" s="0" t="s">
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="B100" t="s">
         <v>465</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C100" t="s">
         <v>466</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="D100" t="s">
         <v>467</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="E100" t="s">
         <v>468</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
         <v>469</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B101" t="s">
         <v>470</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C101" t="s">
         <v>471</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D101" t="s">
         <v>472</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="E101" t="s">
         <v>473</v>
       </c>
-      <c r="B103" s="0" t="s">
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
         <v>474</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="B102" t="s">
         <v>475</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="C102" t="s">
         <v>476</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="D102" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
         <v>478</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B103" t="s">
         <v>479</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C103" t="s">
         <v>480</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D103" t="s">
         <v>481</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E103" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
         <v>483</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B104" t="s">
         <v>484</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C104" t="s">
         <v>485</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="0" t="s">
+      <c r="D104" t="s">
         <v>486</v>
       </c>
+      <c r="E104" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>487</v>
+      </c>
+      <c r="B105" t="s">
+        <v>488</v>
+      </c>
+      <c r="C105" t="s">
+        <v>489</v>
+      </c>
+      <c r="D105" t="s">
+        <v>490</v>
+      </c>
+      <c r="E105" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>491</v>
+      </c>
+      <c r="B106" t="s">
+        <v>492</v>
+      </c>
+      <c r="C106" t="s">
+        <v>493</v>
+      </c>
+      <c r="D106" t="s">
+        <v>494</v>
+      </c>
+      <c r="E106" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>496</v>
+      </c>
+      <c r="B107" t="s">
+        <v>497</v>
+      </c>
+      <c r="C107" t="s">
+        <v>498</v>
+      </c>
+      <c r="D107" t="s">
+        <v>499</v>
+      </c>
+      <c r="E107" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>501</v>
+      </c>
+      <c r="B108" t="s">
+        <v>502</v>
+      </c>
+      <c r="C108" t="s">
+        <v>503</v>
+      </c>
+      <c r="D108" t="s">
+        <v>243</v>
+      </c>
+      <c r="E108" t="s">
+        <v>504</v>
+      </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/licensing-service-plan-reference-modifed.xlsx
+++ b/licensing-service-plan-reference-modifed.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonIngildsen\GithubRepo\ms365-license-tools\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE51F8-E063-450D-AD7E-49CEC9CEF983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
   <si>
     <t>Productname</t>
   </si>
@@ -49,11 +41,11 @@
     <t>8f0c5670-4e56-4892-b06d-91c085d7004f</t>
   </si>
   <si>
-    <t>SPZA (0bfc98ed-1dbc-4a97-b246-701754e48b17)
+    <t xml:space="preserve">SPZA (0bfc98ed-1dbc-4a97-b246-701754e48b17)
 EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)</t>
   </si>
   <si>
-    <t>APP CONNECT (0bfc98ed-1dbc-4a97-b246-701754e48b17)
+    <t xml:space="preserve">APP CONNECT (0bfc98ed-1dbc-4a97-b246-701754e48b17)
 EXCHANGE FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)</t>
   </si>
   <si>
@@ -96,12 +88,12 @@
     <t>078d2b04-f1bd-4111-bbd4-b4b1b354cef4</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 MFA_PREMIUM (8a256a2b-b617-496d-b51b-e76466e88db0)</t>
   </si>
   <si>
-    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 MICROSOFT AZURE MULTI-FACTOR AUTHENTICATION (8a256a2b-b617-496d-b51b-e76466e88db0)
 CLOUD APP SECURITY DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)</t>
   </si>
@@ -115,13 +107,13 @@
     <t>84a661c4-e949-4bd2-a560-ed7766fcaf2b</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 MFA_PREMIUM (8a256a2b-b617-496d-b51b-e76466e88db0)</t>
   </si>
   <si>
-    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 MICROSOFT AZURE MULTI-FACTOR AUTHENTICATION (8a256a2b-b617-496d-b51b-e76466e88db0)
 CLOUD APP SECURITY DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 AZURE ACTIVE DIRECTORY PREMIUM P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)</t>
@@ -136,11 +128,11 @@
     <t>c52ea49f-fe5d-4e95-93ba-1de91d380f89</t>
   </si>
   <si>
-    <t>RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
+    <t xml:space="preserve">RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)</t>
   </si>
   <si>
-    <t>AZURE INFORMATION PROTECTION PREMIUM P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
+    <t xml:space="preserve">AZURE INFORMATION PROTECTION PREMIUM P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 MICROSOFT AZURE ACTIVE DIRECTORY RIGHTS (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)</t>
   </si>
   <si>
@@ -153,12 +145,12 @@
     <t>295a8eb0-f78d-45c7-8b5b-1eed5ed02dff</t>
   </si>
   <si>
-    <t>MCOEV (4828c8ec-dc2e-4779-b502-87ac9ce28ab7)
+    <t xml:space="preserve">MCOEV (4828c8ec-dc2e-4779-b502-87ac9ce28ab7)
 TEAMS1 (57ff2da0-773e-42df-b2af-ffb7a2317929)
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t>MICROSOFT 365 PHONE SYSTEM (4828c8ec-dc2e-4779-b502-87ac9ce28ab7)
+    <t xml:space="preserve">MICROSOFT 365 PHONE SYSTEM (4828c8ec-dc2e-4779-b502-87ac9ce28ab7)
 MICROSOFT TEAMS (57ff2da0-773e-42df-b2af-ffb7a2317929)
 SKYPE FOR BUSINESS ONLINE (PLAN 2) (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
@@ -187,7 +179,7 @@
     <t>ea126fc5-a19e-42e2-a731-da9d437bffcf</t>
   </si>
   <si>
-    <t>DYN365_ENTERPRISE_P1 (d56f3deb-50d8-465a-bedb-f079817ccac1)
+    <t xml:space="preserve">DYN365_ENTERPRISE_P1 (d56f3deb-50d8-465a-bedb-f079817ccac1)
 FLOW_DYN_P2 (b650d915-9886-424b-a08d-633cede56f57)
 NBENTERPRISE (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS_DYN_P2 (0b03f40b-c404-40c3-8651-2aceb74365fa)
@@ -197,7 +189,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t>MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
+    <t xml:space="preserve">MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS FOR DYNAMICS 365 (0b03f40b-c404-40c3-8651-2aceb74365fa)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 FLOW FOR DYNAMICS 365 (b650d915-9886-424b-a08d-633cede56f57)
@@ -216,7 +208,7 @@
     <t>749742bf-0d37-4158-a120-33567104deeb</t>
   </si>
   <si>
-    <t>DYN365_ENTERPRISE_CUSTOMER_SERVICE (99340b49-fb81-4b1e-976b-8f2ae8e9394f)
+    <t xml:space="preserve">DYN365_ENTERPRISE_CUSTOMER_SERVICE (99340b49-fb81-4b1e-976b-8f2ae8e9394f)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 NBENTERPRISE (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -225,7 +217,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t>MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
+    <t xml:space="preserve">MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 PROJECT ONLINE ESSENTIALS (1259157c-8581-4875-bca7-2ffb18c51bda)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
@@ -243,12 +235,12 @@
     <t>cc13a803-544e-4464-b4e4-6d6169a138fa</t>
   </si>
   <si>
-    <t>DYN365_FINANCIALS_BUSINESS (920656a2-7dd8-4c83-97b6-a356414dbd36)
+    <t xml:space="preserve">DYN365_FINANCIALS_BUSINESS (920656a2-7dd8-4c83-97b6-a356414dbd36)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)</t>
   </si>
   <si>
-    <t>FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
+    <t xml:space="preserve">FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 POWERAPPS FOR DYNAMICS 365 (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
 DYNAMICS 365 FOR FINANCIALS (920656a2-7dd8-4c83-97b6-a356414dbd36)</t>
   </si>
@@ -262,7 +254,7 @@
     <t>8edc2cf8-6438-4fa9-b6e3-aa1660c640cc</t>
   </si>
   <si>
-    <t>DYN365_ENTERPRISE_P1 (d56f3deb-50d8-465a-bedb-f079817ccac1)
+    <t xml:space="preserve">DYN365_ENTERPRISE_P1 (d56f3deb-50d8-465a-bedb-f079817ccac1)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 NBENTERPRISE (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -271,7 +263,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t>DYNAMICS 365 CUSTOMER ENGAGEMENT PLAN (d56f3deb-50d8-465a-bedb-f079817ccac1)
+    <t xml:space="preserve">DYNAMICS 365 CUSTOMER ENGAGEMENT PLAN (d56f3deb-50d8-465a-bedb-f079817ccac1)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS FOR DYNAMICS 365 (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -289,7 +281,7 @@
     <t>1e1a282c-9c54-43a2-9310-98ef728faace</t>
   </si>
   <si>
-    <t>DYN365_ENTERPRISE_SALES (2da8e897-7791-486b-b08f-cc63c8129df7)
+    <t xml:space="preserve">DYN365_ENTERPRISE_SALES (2da8e897-7791-486b-b08f-cc63c8129df7)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 NBENTERPRISE (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -298,7 +290,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t>DYNAMICS 365 FOR SALES (2da8e897-7791-486b-b08f-cc63c8129df7)
+    <t xml:space="preserve">DYNAMICS 365 FOR SALES (2da8e897-7791-486b-b08f-cc63c8129df7)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 MICROSOFT SOCIAL ENGAGEMENT - SERVICE DISCONTINUATION (03acaee3-9492-4f40-aed4-bcb6b32981b6)
 POWERAPPS FOR DYNAMICS 365 (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)
@@ -316,7 +308,7 @@
     <t>8e7a3d30-d97d-43ab-837c-d7701cef83dc</t>
   </si>
   <si>
-    <t>DYN365_Enterprise_Talent_Attract_TeamMember (643d201a-9884-45be-962a-06ba97062e5e)
+    <t xml:space="preserve">DYN365_Enterprise_Talent_Attract_TeamMember (643d201a-9884-45be-962a-06ba97062e5e)
 DYN365_Enterprise_Talent_Onboard_TeamMember (f2f49eef-4b3f-4853-809a-a055c6103fe0)
 DYN365_ENTERPRISE_TEAM_MEMBERS (6a54b05e-4fab-40e7-9828-428db3b336fa)
 Dynamics_365_for_Operations_Team_members (f5aa7b45-8a36-4cd1-bc37-5d06dea98645)
@@ -329,7 +321,7 @@
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t>DYNAMICS 365 FOR TALENT - ATTRACT EXPERIENCE TEAM MEMBER (643d201a-9884-45be-962a-06ba97062e5e)
+    <t xml:space="preserve">DYNAMICS 365 FOR TALENT - ATTRACT EXPERIENCE TEAM MEMBER (643d201a-9884-45be-962a-06ba97062e5e)
 DYNAMICS 365 FOR TALENT - ONBOARD EXPERIENCE (f2f49eef-4b3f-4853-809a-a055c6103fe0)
 DYNAMICS 365 FOR TEAM MEMBERS (6a54b05e-4fab-40e7-9828-428db3b336fa)
 DYNAMICS_365_FOR_OPERATIONS_TEAM_MEMBERS (f5aa7b45-8a36-4cd1-bc37-5d06dea98645)
@@ -351,7 +343,7 @@
     <t>ccba3cfe-71ef-423a-bd87-b6df3dce59a9</t>
   </si>
   <si>
-    <t>DDYN365_CDS_DYN_P2 (d1142cfd-872e-4e77-b6ff-d98ec5a51f66)
+    <t xml:space="preserve">DDYN365_CDS_DYN_P2 (d1142cfd-872e-4e77-b6ff-d98ec5a51f66)
 DYN365_TALENT_ENTERPRISE (65a1ebf4-6732-4f00-9dcb-3d115ffdeecd)
 Dynamics_365_for_Operations (95d2cd7b-1007-484b-8595-5e97e63fe189)
 Dynamics_365_for_Retail (a9e39199-8369-444b-89c1-5fe65ec45665)
@@ -361,7 +353,7 @@
 POWERAPPS_DYN_P2 (0b03f40b-c404-40c3-8651-2aceb74365fa)</t>
   </si>
   <si>
-    <t>COMMON DATA SERVICE (d1142cfd-872e-4e77-b6ff-d98ec5a51f66)
+    <t xml:space="preserve">COMMON DATA SERVICE (d1142cfd-872e-4e77-b6ff-d98ec5a51f66)
 DYNAMICS 365 FOR TALENT (65a1ebf4-6732-4f00-9dcb-3d115ffdeecd)
 DYNAMICS_365_FOR_OPERATIONS (95d2cd7b-1007-484b-8595-5e97e63fe189)
 DYNAMICS 365 FOR RETAIL (a9e39199-8369-444b-89c1-5fe65ec45665)
@@ -380,7 +372,7 @@
     <t>efccb6f7-5641-4e0e-bd10-b4976e1bf68e</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 INTUNE_A (c1ec4a95-1f05-45b3-a911-aa3fa01094f5)
 MFA_PREMIUM (8a256a2b-b617-496d-b51b-e76466e88db0)
@@ -388,7 +380,7 @@
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)</t>
   </si>
   <si>
-    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 CLOUD APP SECURITY DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 MICROSOFT INTUNE (c1ec4a95-1f05-45b3-a911-aa3fa01094f5)
 MICROSOFT AZURE MULTI-FACTOR AUTHENTICATION (8a256a2b-b617-496d-b51b-e76466e88db0)
@@ -405,7 +397,7 @@
     <t>b05e124f-c7cc-45a0-a6aa-8cf78c946968</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ADALLOM_S_STANDALONE (2e2ddb96-6af9-4b1d-a3f0-d6ecfd22edb2)
 ATA (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -416,7 +408,7 @@
 RMS_S_PREMIUM2 (5689bec4-755d-4753-8b61-40975025187c)</t>
   </si>
   <si>
-    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AZURE ACTIVE DIRECTORY PREMIUM P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 MICROSOFT CLOUD APP SECURITY (2e2ddb96-6af9-4b1d-a3f0-d6ecfd22edb2)
 AZURE ADVANCED THREAT PROTECTION (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -559,13 +551,13 @@
     <t>b17653a4-2443-4e8c-a550-18249dda78bb</t>
   </si>
   <si>
-    <t>AAD_EDU (3a3976ce-de18-4a87-a78e-5e9245e252df)
+    <t xml:space="preserve">AAD_EDU (3a3976ce-de18-4a87-a78e-5e9245e252df)
 INTUNE_EDU (da24caf9-af8e-485c-b7c8-e73336da2693)
 INTUNE_A (c1ec4a95-1f05-45b3-a911-aa3fa01094f5)
 WINDOWS_STORE (a420f25f-a7b3-4ff5-a9d0-5d58f73b537d)</t>
   </si>
   <si>
-    <t>Azure Active Directory for Education (3a3976ce-de18-4a87-a78e-5e9245e252df)
+    <t xml:space="preserve">Azure Active Directory for Education (3a3976ce-de18-4a87-a78e-5e9245e252df)
 Intune for Education (da24caf9-af8e-485c-b7c8-e73336da2693)
 Microsoft Intune (c1ec4a95-1f05-45b3-a911-aa3fa01094f5)
 Windows Store Service (a420f25f-a7b3-4ff5-a9d0-5d58f73b537d)</t>
@@ -580,7 +572,7 @@
     <t>4b590615-0888-425a-a965-b3bf7789848d</t>
   </si>
   <si>
-    <t>AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t xml:space="preserve">AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -617,7 +609,7 @@
 YAMMER_EDU (2078e8df-cff6-4290-98cb-5408261a760a)</t>
   </si>
   <si>
-    <t>Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t xml:space="preserve">Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Azure Rights Management (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -672,7 +664,7 @@
     <t>e97c048c-37a4-45fb-ab50-922fbf07a370</t>
   </si>
   <si>
-    <t>AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t xml:space="preserve">AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ATA (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -726,7 +718,7 @@
 YAMMER_EDU (2078e8df-cff6-4290-98cb-5408261a760a)</t>
   </si>
   <si>
-    <t>Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t xml:space="preserve">Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 Azure Advanced Threat Protection (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -789,7 +781,7 @@
     <t>46c119d4-0379-4a9d-85e4-97c66d3f909e</t>
   </si>
   <si>
-    <t>Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t xml:space="preserve">Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 Azure Advanced Threat Protection (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -852,14 +844,14 @@
     <t>cdd28e44-67e3-425e-be4c-737fab2899d3</t>
   </si>
   <si>
-    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 OFFICE_BUSINESS (094e7854-93fc-4d55-b2c0-3ab5369ebdc1)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 OFFICE 365 BUSINESS (094e7854-93fc-4d55-b2c0-3ab5369ebdc1)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
@@ -881,14 +873,14 @@
     <t>c2273bd0-dff7-4215-9ef5-2c7bcfb06425</t>
   </si>
   <si>
-    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 OFFICESUBSCRIPTION (43de0ff5-c92c-492b-9116-175376d08c38)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 OFFICESUBSCRIPTION (43de0ff5-c92c-492b-9116-175376d08c38)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
@@ -904,7 +896,7 @@
     <t>3b555118-da6a-4418-894f-7df1e2096870</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
 FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
@@ -919,7 +911,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
 MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
@@ -940,7 +932,7 @@
     <t>dab7782a-93b1-4074-8bb1-0e61318bea0b</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
 FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
@@ -955,7 +947,7 @@
 YAMMER_MIDSIZE (41bf139a-4e60-409f-9346-a1361efc6dfb)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
 MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
@@ -979,7 +971,7 @@
     <t>f245ecc8-75af-4f8e-b61f-27d8114de5f3</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -997,7 +989,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1021,7 +1013,7 @@
     <t>ac5cef5d-921b-4f97-9ef3-c99076e5470f</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1039,7 +1031,7 @@
 YAMMER_MIDSIZE (41bf139a-4e60-409f-9346-a1361efc6dfb)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1066,7 +1058,7 @@
     <t>cbdc14ab-d96c-4c30-b9f4-6ada7cdc1d46</t>
   </si>
   <si>
-    <t>AAD_SMB (de377cbc-0019-4ec2-b77c-3f223947e102)
+    <t xml:space="preserve">AAD_SMB (de377cbc-0019-4ec2-b77c-3f223947e102)
 BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_ARCHIVE_ADDON (176a09a6-7ec5-4039-ac02-b2791c6ba793)
@@ -1078,7 +1070,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)
 MICROSOFTBOOKINGS (199a5c09-e0ca-4e37-8f7c-b05d533e1ea2)
 O365_SB_Relationship_Management (5bfe124c-bbdc-4494-8835-f1297d457d79)
-OFFICE_BUSINESS (094e7854-93fc-4d55-b2c0-3ab5369ebdc1)
+OFFICE_BUS_SCA (Custom-001)
 POWERAPPS_O365_P1 (92f7a6f3-b89b-4bbd-8c30-809e6da5ad1c)
 PROJECTWORKMANAGEMENT (b737dad2-2f6c-4c65-90e3-ca563267e8b9)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -1093,7 +1085,7 @@
 ATP_ENTERPRISE (f20fedf3-f3c3-43c3-8267-2bfdd51c0939)</t>
   </si>
   <si>
-    <t>AZURE ACTIVE DIRECTORY (de377cbc-0019-4ec2-b77c-3f223947e102)
+    <t xml:space="preserve">AZURE ACTIVE DIRECTORY (de377cbc-0019-4ec2-b77c-3f223947e102)
 BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE ARCHIVING FOR EXCHANGE ONLINE (176a09a6-7ec5-4039-ac02-b2791c6ba793)
@@ -1105,7 +1097,7 @@
 SKYPE FOR BUSINESS ONLINE (PLAN 2) (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)
 MICROSOFTBOOKINGS (199a5c09-e0ca-4e37-8f7c-b05d533e1ea2)
 OUTLOOK CUSTOMER MANAGER (5bfe124c-bbdc-4494-8835-f1297d457d79)
-OFFICE 365 BUSINESS (094e7854-93fc-4d55-b2c0-3ab5369ebdc1)
+OFFICE 365 BUSINESS WITH SHARED COMPUTER ACTIVATION (Custom-001)
 POWERAPPS FOR OFFICE 365 (92f7a6f3-b89b-4bbd-8c30-809e6da5ad1c)
 MICROSOFT PLANNER(b737dad2-2f6c-4c65-90e3-ca563267e8b9)
 MICROSOFT AZURE ACTIVE DIRECTORY RIGHTS (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -1144,7 +1136,7 @@
     <t>05e9a617-0261-4cee-bb44-138d3ef5d965</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -1168,7 +1160,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 CLOUD APP SECURITY DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -1201,7 +1193,7 @@
     <t>06ebc4ee-1bb5-47dd-8120-11324bc54e06</t>
   </si>
   <si>
-    <t>MCOMEETADV (3e26ee1f-8a5f-4d52-aee2-b81ce45c8f40)
+    <t xml:space="preserve">MCOMEETADV (3e26ee1f-8a5f-4d52-aee2-b81ce45c8f40)
 AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ATA (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -1248,7 +1240,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>Audio Conferencing (3e26ee1f-8a5f-4d52-aee2-b81ce45c8f40)
+    <t xml:space="preserve">Audio Conferencing (3e26ee1f-8a5f-4d52-aee2-b81ce45c8f40)
 Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 Azure Advanced Threat Protection (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
@@ -1304,7 +1296,7 @@
     <t>d61d61cc-f992-433f-a577-5bd016037eeb</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -1318,7 +1310,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t>Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
 Microsoft Azure Active Directory Rights (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
@@ -1341,7 +1333,7 @@
     <t>ca9d1dd9-dfe9-4fef-b97c-9bc1ea3c3658</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
@@ -1357,7 +1349,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t>Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1(6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Cloud App Security Discovery (932ad362-64a8-4783-9106-97849a1a30b9)
 Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
@@ -1382,7 +1374,7 @@
     <t>184efa21-98c3-4e5d-95ab-d07053a96e67</t>
   </si>
   <si>
-    <t>RMS_S_PREMIUM2 (5689bec4-755d-4753-8b61-40975025187c)
+    <t xml:space="preserve">RMS_S_PREMIUM2 (5689bec4-755d-4753-8b61-40975025187c)
 LOCKBOX_ENTERPRISE (9f431833-0334-42de-a7dc-70aa40db46db)
 INFORMATION_BARRIERS (c4801e8a-cb58-4c35-aca6-f2dcc106f287)
 MIP_S_CLP2 (efb0351d-3b08-4503-993d-383af8de41e3)
@@ -1392,7 +1384,7 @@
 PREMIUM_ENCRYPTION (617b097b-4b93-4ede-83de-5f075bb5fb2f)</t>
   </si>
   <si>
-    <t>Azure Information Protection Premium P2 (5689bec4-755d-4753-8b61-40975025187c)
+    <t xml:space="preserve">Azure Information Protection Premium P2 (5689bec4-755d-4753-8b61-40975025187c)
 Customer Lockbox (9f431833-0334-42de-a7dc-70aa40db46db)
 Information Barriers (c4801e8a-cb58-4c35-aca6-f2dcc106f287)
 Information Protection for Office 365 - Premium (efb0351d-3b08-4503-993d-383af8de41e3)
@@ -1411,7 +1403,7 @@
     <t>26124093-3d78-432b-b5dc-48bf992543d5</t>
   </si>
   <si>
-    <t>AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
+    <t xml:space="preserve">AAD_PREMIUM_P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 ATA (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
 ADALLOM_S_STANDALONE (2e2ddb96-6af9-4b1d-a3f0-d6ecfd22edb2)
 WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
@@ -1420,7 +1412,7 @@
 SAFEDOCS (bf6f5520-59e3-4f82-974b-7dbbc4fd27c7)</t>
   </si>
   <si>
-    <t>Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
+    <t xml:space="preserve">Azure Active Directory Premium P2 (eec0eb4f-6444-4f95-aba0-50c24d67f998)
 Azure Advanced Threat Protection (14ab5db5-e6c4-4b20-b4bc-13e36fd2227f)
 Microsoft Cloud App Security (2e2ddb96-6af9-4b1d-a3f0-d6ecfd22edb2)
 Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
@@ -1438,13 +1430,13 @@
     <t>44ac31e7-2999-4304-ad94-c948886741d4</t>
   </si>
   <si>
-    <t>WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
+    <t xml:space="preserve">WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
 ATP_ENTERPRISE (f20fedf3-f3c3-43c3-8267-2bfdd51c0939)
 THREAT_INTELLIGENCE (8e0c0a52-6a6c-4d40-8370-dd62790dcd70)
 SAFEDOCS (bf6f5520-59e3-4f82-974b-7dbbc4fd27c7)</t>
   </si>
   <si>
-    <t>Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
+    <t xml:space="preserve">Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
 Office 365 Advanced Threat Protection (Plan 1) (f20fedf3-f3c3-43c3-8267-2bfdd51c0939)
 Office 365 Advanced Threat Protection (Plan 2) (8e0c0a52-6a6c-4d40-8370-dd62790dcd70)
 Office 365 SafeDocs (bf6f5520-59e3-4f82-974b-7dbbc4fd27c7)</t>
@@ -1459,7 +1451,7 @@
     <t>44575883-256e-4a79-9da4-ebe9acabe2b2</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 RMS_S_ENTERPRISE_GOV (6a76346d-5d6e-4051-9fe3-ed3f312b5597)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
@@ -1475,7 +1467,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Azure Rights Management (6a76346d-5d6e-4051-9fe3-ed3f312b5597)
 Cloud App Security Discovery (932ad362-64a8-4783-9106-97849a1a30b9)
@@ -1500,7 +1492,7 @@
     <t>66b55226-6b4f-492c-910c-a3b7a3c9d993</t>
   </si>
   <si>
-    <t>AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">AAD_PREMIUM (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 RMS_S_PREMIUM (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 ADALLOM_S_DISCOVERY (932ad362-64a8-4783-9106-97849a1a30b9)
@@ -1528,7 +1520,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
+    <t xml:space="preserve">Azure Active Directory Premium P1 (41781fb2-bc02-4b7c-bd55-b576c07bb09d)
 Azure Information Protection Premium P1 (6c57d4b6-3b23-47a5-9bc9-69f17b4947b3)
 Azure Rights Management (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 Cloud App Security Discovery (932ad362-64a8-4783-9106-97849a1a30b9)
@@ -1706,11 +1698,11 @@
     <t>111046dd-295b-4d6d-9724-d52ac90bd1f2</t>
   </si>
   <si>
-    <t>EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)
+    <t xml:space="preserve">EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)
 WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)</t>
   </si>
   <si>
-    <t>Exchange Foundation (113feb6c-3fe4-4440-bddc-54d774bf0318)
+    <t xml:space="preserve">Exchange Foundation (113feb6c-3fe4-4440-bddc-54d774bf0318)
 Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)</t>
   </si>
   <si>
@@ -1723,12 +1715,12 @@
     <t>906af65a-2970-46d5-9b58-4e9aa50f0657</t>
   </si>
   <si>
-    <t>CRMPLAN2 (bf36ca64-95c6-4918-9275-eb9f4ce2c04f)
+    <t xml:space="preserve">CRMPLAN2 (bf36ca64-95c6-4918-9275-eb9f4ce2c04f)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)</t>
   </si>
   <si>
-    <t>MICROSOFT DYNAMICS CRM ONLINE BASIC(bf36ca64-95c6-4918-9275-eb9f4ce2c04f)
+    <t xml:space="preserve">MICROSOFT DYNAMICS CRM ONLINE BASIC(bf36ca64-95c6-4918-9275-eb9f4ce2c04f)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 POWERAPPS FOR DYNAMICS 365 (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)</t>
   </si>
@@ -1742,14 +1734,14 @@
     <t>d17b27af-3f49-4822-99f9-56a661538792</t>
   </si>
   <si>
-    <t>CRMSTANDARD (f9646fb2-e3b2-4309-95de-dc4833737456)
+    <t xml:space="preserve">CRMSTANDARD (f9646fb2-e3b2-4309-95de-dc4833737456)
 FLOW_DYN_APPS (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 MDM_SALES_COLLABORATION (3413916e-ee66-4071-be30-6f94d4adfeda)
 NBPROFESSIONALFORCRM (3e58e97c-9abe-ebab-cd5f-d543d1529634)
 POWERAPPS_DYN_APPS (874fc546-6efe-4d22-90b8-5c4e7aa59f4b)</t>
   </si>
   <si>
-    <t>MICROSOFT DYNAMICS CRM ONLINE PROFESSIONAL(f9646fb2-e3b2-4309-95de-dc4833737456)
+    <t xml:space="preserve">MICROSOFT DYNAMICS CRM ONLINE PROFESSIONAL(f9646fb2-e3b2-4309-95de-dc4833737456)
 FLOW FOR DYNAMICS 365 (7e6d7d78-73de-46ba-83b1-6d25117334ba)
 MICROSOFT DYNAMICS MARKETING SALES COLLABORATION - ELIGIBILITY CRITERIA APPLY (3413916e-ee66-4071-be30-6f94d4adfeda)
 MICROSOFT SOCIAL ENGAGEMENT PROFESSIONAL - ELIGIBILITY CRITERIA APPLY (3e58e97c-9abe-ebab-cd5f-d543d1529634)
@@ -1795,7 +1787,7 @@
     <t>a4585165-0533-458a-97e3-c400570268c4</t>
   </si>
   <si>
-    <t>AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t xml:space="preserve">AAD_BASIC_EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 LOCKBOX_ENTERPRISE (9f431833-0334-42de-a7dc-70aa40db46db)
 EducationAnalyticsP1 (a9b86446-fa4e-498f-a92a-41b447e03337)
@@ -1842,7 +1834,7 @@
 YAMMER_EDU (2078e8df-cff6-4290-98cb-5408261a760a)</t>
   </si>
   <si>
-    <t>Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
+    <t xml:space="preserve">Azure Active Directory Basic for EDU (1d0f309f-fdf9-4b2a-9ae7-9c48b91f1426)
 Azure Rights Management (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 Customer Lockbox (9f431833-0334-42de-a7dc-70aa40db46db)
 Education Analytics (a9b86446-fa4e-498f-a92a-41b447e03337)
@@ -1907,7 +1899,7 @@
     <t>1b1b1f7a-8355-43b6-829f-336cfccb744c</t>
   </si>
   <si>
-    <t>LOCKBOX_ENTERPRISE (9f431833-0334-42de-a7dc-70aa40db46db)
+    <t xml:space="preserve">LOCKBOX_ENTERPRISE (9f431833-0334-42de-a7dc-70aa40db46db)
 INFORMATION_BARRIERS (c4801e8a-cb58-4c35-aca6-f2dcc106f287)
 MIP_S_CLP2 (efb0351d-3b08-4503-993d-383af8de41e3)
 EQUIVIO_ANALYTICS (4de31727-a228-4ec3-a5bf-8e45b5ca48cc)
@@ -1915,7 +1907,7 @@
 PREMIUM_ENCRYPTION (617b097b-4b93-4ede-83de-5f075bb5fb2f)</t>
   </si>
   <si>
-    <t>Customer Lockbox (9f431833-0334-42de-a7dc-70aa40db46db)
+    <t xml:space="preserve">Customer Lockbox (9f431833-0334-42de-a7dc-70aa40db46db)
 Information Barriers (c4801e8a-cb58-4c35-aca6-f2dcc106f287)
 Information Protection for Office 365 - Premium (efb0351d-3b08-4503-993d-383af8de41e3)
 Office 365 Advanced eDiscovery (4de31727-a228-4ec3-a5bf-8e45b5ca48cc)
@@ -1947,7 +1939,7 @@
     <t>18181a46-0d4e-45cd-891e-60aabd171b4e</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1964,7 +1956,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653))</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -1990,7 +1982,7 @@
     <t>6634e0ce-1a9f-428c-a498-f84ec7b8aa2e</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1(5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1(5e62787c-c316-451f-b873-1d05acd4d12c)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_STANDARD (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW_O365_P1 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -2006,7 +1998,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
+    <t xml:space="preserve">BPOS_S_TODO_1 (5e62787c-c316-451f-b873-1d05acd4d12c)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 1) (9aaf7827-d63c-4b61-89c3-182f06f82e5c)
 FLOW FOR OFFICE 365 (0f9b09cb-62d1-4ff4-9129-43f4996f83f4)
@@ -2031,7 +2023,7 @@
     <t>6fd2c87f-b296-42f0-b197-1e91e994b900</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
+    <t xml:space="preserve">BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW_O365_P2 (76846ad7-7776-4c40-a281-a386362dd1b9)
@@ -2049,7 +2041,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
+    <t xml:space="preserve">BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 2)(efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW FOR OFFICE 365 (76846ad7-7776-4c40-a281-a386362dd1b9)
@@ -2076,7 +2068,7 @@
     <t>189a915c-fe4f-4ffa-bde4-85b9628d07a0</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
+    <t xml:space="preserve">BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW_O365_P2 (76846ad7-7776-4c40-a281-a386362dd1b9)
 FORMS_PLAN_E5 (e212cbc7-0961-4c40-9825-01117710dcb1)
@@ -2091,7 +2083,7 @@
 TEAMS1 (57ff2da0-773e-42df-b2af-ffb7a2317929)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
+    <t xml:space="preserve">BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 EXCHANGE ONLINE (PLAN 2)(efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW FOR OFFICE 365 (76846ad7-7776-4c40-a281-a386362dd1b9)
 MICROSOFT FORMS (PLAN E5)(e212cbc7-0961-4c40-9825-01117710dcb1)
@@ -2115,7 +2107,7 @@
     <t>b107e5a3-3e60-4c0d-a184-a7e4395eb44c</t>
   </si>
   <si>
-    <t>EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
+    <t xml:space="preserve">EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 STREAM_O365_E3 (9e700747-8b1d-45e5-ab8d-ef187ceec156)
 TEAMS_AR_DOD (fd500458-c24c-478e-856c-a6067a8376cd)
@@ -2125,7 +2117,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t>Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
+    <t xml:space="preserve">Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
 Microsoft Azure Active Directory Rights (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 Microsoft Stream for O365 E3 SKU (9e700747-8b1d-45e5-ab8d-ef187ceec156)
 Microsoft Teams for DOD (AR) (fd500458-c24c-478e-856c-a6067a8376cd)
@@ -2144,7 +2136,7 @@
     <t>aea38a85-9bd5-4981-aa00-616b411205bf</t>
   </si>
   <si>
-    <t>EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
+    <t xml:space="preserve">EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 RMS_S_ENTERPRISE (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 PROJECTWORKMANAGEMENT (b737dad2-2f6c-4c65-90e3-ca563267e8b9)
 STREAM_O365_E3 (9e700747-8b1d-45e5-ab8d-ef187ceec156)
@@ -2155,7 +2147,7 @@
 MCOSTANDARD (0feaeb32-d00e-4d66-bd5a-43b5b83db82c)</t>
   </si>
   <si>
-    <t>Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
+    <t xml:space="preserve">Exchange Online (Plan 2) (efb87545-963c-4e0d-99df-69c6916d9eb0)
 Microsoft Azure Active Directory Rights (bea4c11e-220a-4e6d-8eb8-8ea15d019f90)
 Microsoft Planner (b737dad2-2f6c-4c65-90e3-ca563267e8b9)
 Microsoft Stream for O365 E3 SKU (9e700747-8b1d-45e5-ab8d-ef187ceec156)
@@ -2175,7 +2167,7 @@
     <t>1392051d-0cb9-4b7a-88d5-621fee5e8711</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
+    <t xml:space="preserve">BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE_S_ENTERPRISE (efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW_O365_P2 (76846ad7-7776-4c40-a281-a386362dd1b9)
@@ -2194,7 +2186,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
+    <t xml:space="preserve">BPOS_S_TODO_2 (c87f142c-d1e9-4363-8630-aaea9c4d9ae5)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 EXCHANGE ONLINE (PLAN 2)(efb87545-963c-4e0d-99df-69c6916d9eb0)
 FLOW FOR OFFICE 365 (76846ad7-7776-4c40-a281-a386362dd1b9)
@@ -2222,7 +2214,7 @@
     <t>c7df2760-2c81-4ef7-b578-5b5392b571df</t>
   </si>
   <si>
-    <t>ADALLOM_S_O365 (8c098270-9dd4-4350-9b30-ba4703f3b36b)
+    <t xml:space="preserve">ADALLOM_S_O365 (8c098270-9dd4-4350-9b30-ba4703f3b36b)
 BI_AZURE_P2 (70d33638-9c74-4d01-bfd3-562de28bd4ba)
 BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -2249,7 +2241,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>OFFICE 365 CLOUD APP SECURITY (8c098270-9dd4-4350-9b30-ba4703f3b36b)
+    <t xml:space="preserve">OFFICE 365 CLOUD APP SECURITY (8c098270-9dd4-4350-9b30-ba4703f3b36b)
 POWER BI PRO (70d33638-9c74-4d01-bfd3-562de28bd4ba)
 BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -2285,7 +2277,7 @@
     <t>26d45bd9-adf1-46cd-a9e1-51e9a5524128</t>
   </si>
   <si>
-    <t>ADALLOM_S_O365 (8c098270-9dd4-4350-9b30-ba4703f3b36b)
+    <t xml:space="preserve">ADALLOM_S_O365 (8c098270-9dd4-4350-9b30-ba4703f3b36b)
 BI_AZURE_P2 (70d33638-9c74-4d01-bfd3-562de28bd4ba)
 BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 Deskless (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -2310,7 +2302,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>OFFICE 365 CLOUD APP SECURITY (8c098270-9dd4-4350-9b30-ba4703f3b36b)
+    <t xml:space="preserve">OFFICE 365 CLOUD APP SECURITY (8c098270-9dd4-4350-9b30-ba4703f3b36b)
 POWER BI PRO (70d33638-9c74-4d01-bfd3-562de28bd4ba)
 BPOS_S_TODO_3 (3fb82609-8c27-4f7b-bd51-30634711ee67)
 MICROSOFT STAFFHUB (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
@@ -2344,7 +2336,7 @@
     <t>4b585984-651b-448a-9e53-3b10f069cf7f</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
+    <t xml:space="preserve">BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
 CDS_O365_F1 (90db65a7-bf11-4904-a79f-ef657605145b)
 DESKLESS (8c7d2df8-86f0-4902-b2ed-a0458298f3b3)
 DYN365_CDS_O365_F1 (ca6e61ec-d4f4-41eb-8b88-d96e0e14323f)
@@ -2370,7 +2362,7 @@
 YAMMER_ENTERPRISE (7547a3fe-08ee-4ccb-b430-5077c5041653)</t>
   </si>
   <si>
-    <t>BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
+    <t xml:space="preserve">BPOS_S_TODO_FIRSTLINE (80873e7a-cd2a-4e67-b061-1b5381a676a5)
 COMMON DATA SERVICE - O365 F1 (ca6e61ec-d4f4-41eb-8b88-d96e0e14323f)
 COMMON DATA SERVICE FOR TEAMS_F1 (90db65a7-bf11-4904-a79f-ef657605145b)
 EXCHANGE ONLINE KIOSK (4a82b400-a79f-41a4-b4e2-e94f5787b113)
@@ -2405,7 +2397,7 @@
     <t>04a7fb0d-32e0-4241-b4f5-3f7618cd1162</t>
   </si>
   <si>
-    <t>EXCHANGE_S_STANDARD_MIDMARKET (fc52cc4b-ed7d-472d-bbe7-b081c23ecc56)
+    <t xml:space="preserve">EXCHANGE_S_STANDARD_MIDMARKET (fc52cc4b-ed7d-472d-bbe7-b081c23ecc56)
 MCOSTANDARD_MIDMARKET (b2669e95-76ef-4e7e-a367-002f60a39f3e)
 OFFICESUBSCRIPTION (43de0ff5-c92c-492b-9116-175376d08c38)
 SHAREPOINTENTERPRISE_MIDMARKET (6b5b6a67-fc72-4a1f-a2b5-beecf05de761)
@@ -2414,7 +2406,7 @@
 YAMMER_MIDSIZE (41bf139a-4e60-409f-9346-a1361efc6dfb)</t>
   </si>
   <si>
-    <t>EXCHANGE ONLINE PLAN 1(fc52cc4b-ed7d-472d-bbe7-b081c23ecc56)
+    <t xml:space="preserve">EXCHANGE ONLINE PLAN 1(fc52cc4b-ed7d-472d-bbe7-b081c23ecc56)
 SKYPE FOR BUSINESS ONLINE (PLAN 2) FOR MIDSIZE(b2669e95-76ef-4e7e-a367-002f60a39f3e)
 OFFICESUBSCRIPTION (43de0ff5-c92c-492b-9116-175376d08c38)
 SHAREPOINTENTERPRISE_MIDMARKET (6b5b6a67-fc72-4a1f-a2b5-beecf05de761)
@@ -2432,13 +2424,13 @@
     <t>bd09678e-b83c-4d3f-aaba-3dad4abd128b</t>
   </si>
   <si>
-    <t>EXCHANGE_L_STANDARD (d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
+    <t xml:space="preserve">EXCHANGE_L_STANDARD (d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
 MCOLITE (70710b6b-3ab4-4a38-9f6d-9f169461650a)
 SHAREPOINTLITE (a1f3d0a8-84c0-4ae0-bae4-685917b8ab48)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t>EXCHANGE ONLINE (P1)(d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
+    <t xml:space="preserve">EXCHANGE ONLINE (P1)(d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
 SKYPE FOR BUSINESS ONLINE (PLAN P1) (70710b6b-3ab4-4a38-9f6d-9f169461650a)
 SHAREPOINTLITE (a1f3d0a8-84c0-4ae0-bae4-685917b8ab48)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
@@ -2453,14 +2445,14 @@
     <t>fc14ec4a-4169-49a4-a51e-2c852931814b</t>
   </si>
   <si>
-    <t>EXCHANGE_L_STANDARD (d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
+    <t xml:space="preserve">EXCHANGE_L_STANDARD (d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
 MCOLITE (70710b6b-3ab4-4a38-9f6d-9f169461650a)
 OFFICE_PRO_PLUS_SUBSCRIPTION_SMBIZ (8ca59559-e2ca-470b-b7dd-afd8c0dee963)
 SHAREPOINTLITE (a1f3d0a8-84c0-4ae0-bae4-685917b8ab48)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t>EXCHANGE ONLINE (P1)(d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
+    <t xml:space="preserve">EXCHANGE ONLINE (P1)(d42bdbd6-c335-4231-ab3d-c8f348d5aff5)
 SKYPE FOR BUSINESS ONLINE (PLAN P1) (70710b6b-3ab4-4a38-9f6d-9f169461650a)
 OFFICE_PRO_PLUS_SUBSCRIPTION_SMBIZ (8ca59559-e2ca-470b-b7dd-afd8c0dee963)
 SHAREPOINTLITE (a1f3d0a8-84c0-4ae0-bae4-685917b8ab48)
@@ -2476,13 +2468,13 @@
     <t>e6778190-713e-4e4f-9119-8b8238de25df</t>
   </si>
   <si>
-    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 ONEDRIVESTANDARD (13696edf-5a08-49f6-8134-03083ed8ba30)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
@@ -2497,11 +2489,11 @@
     <t>ed01faf2-1d88-4947-ae91-45ca18703a96</t>
   </si>
   <si>
-    <t>ONEDRIVEENTERPRISE (afcafa6a-d966-4462-918c-ec0b4e0fe642)
+    <t xml:space="preserve">ONEDRIVEENTERPRISE (afcafa6a-d966-4462-918c-ec0b4e0fe642)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t>ONEDRIVEENTERPRISE (afcafa6a-d966-4462-918c-ec0b4e0fe642)
+    <t xml:space="preserve">ONEDRIVEENTERPRISE (afcafa6a-d966-4462-918c-ec0b4e0fe642)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
@@ -2526,11 +2518,11 @@
     <t>45bc2c81-6072-436a-9b0b-3b12eefbc402</t>
   </si>
   <si>
-    <t>BI_AZURE_P1 (2125cfd7-2110-4567-83c4-c1cd5275163d)
+    <t xml:space="preserve">BI_AZURE_P1 (2125cfd7-2110-4567-83c4-c1cd5275163d)
 SQL_IS_SSIM (fc0a60aa-feee-4746-a0e3-aecfe81a38dd)</t>
   </si>
   <si>
-    <t>MICROSOFT POWER BI REPORTING AND ANALYTICS PLAN 1 (2125cfd7-2110-4567-83c4-c1cd5275163d)
+    <t xml:space="preserve">MICROSOFT POWER BI REPORTING AND ANALYTICS PLAN 1 (2125cfd7-2110-4567-83c4-c1cd5275163d)
 MICROSOFT POWER BI INFORMATION SERVICES PLAN 1(fc0a60aa-feee-4746-a0e3-aecfe81a38dd)</t>
   </si>
   <si>
@@ -2570,14 +2562,14 @@
     <t>776df282-9fc0-4862-99e2-70e561b9909e</t>
   </si>
   <si>
-    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 PROJECT_ESSENTIALS (1259157c-8581-4875-bca7-2ffb18c51bda)
 SHAREPOINTENTERPRISE (5dbe027f-2339-4123-9542-606e4d348a72)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 PROJECT ONLINE ESSENTIALS (1259157c-8581-4875-bca7-2ffb18c51bda)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
@@ -2593,13 +2585,13 @@
     <t>09015f9f-377f-4538-bbb5-f75ceb09358a</t>
   </si>
   <si>
-    <t>PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
+    <t xml:space="preserve">PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINTENTERPRISE (5dbe027f-2339-4123-9542-606e4d348a72)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
   </si>
   <si>
-    <t>PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
+    <t xml:space="preserve">PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)</t>
@@ -2614,14 +2606,14 @@
     <t>2db84718-652c-47a7-860c-f10d8abbdae3</t>
   </si>
   <si>
-    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINTENTERPRISE (5dbe027f-2339-4123-9542-606e4d348a72)
 SHAREPOINTWAC (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
 OFFICE ONLINE (e95bec33-7c88-4a70-8e19-b10bd9d0c014)
@@ -2646,7 +2638,7 @@
     <t>f82a60b8-1ee3-4cfb-a4fe-1c6a53c2656c</t>
   </si>
   <si>
-    <t>FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">FORMS_PLAN_E1 (159f4cd6-e380-449f-a816-af1a9ef76344)
 PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINTENTERPRISE (5dbe027f-2339-4123-9542-606e4d348a72)
@@ -2654,7 +2646,7 @@
 SWAY (a23b959c-7ce8-4e57-9140-b90eb88a9e97)</t>
   </si>
   <si>
-    <t>MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
+    <t xml:space="preserve">MICROSOFT FORMS (PLAN E1) (159f4cd6-e380-449f-a816-af1a9ef76344)
 PROJECT_CLIENT_SUBSCRIPTION (fafd7243-e5c1-4a3a-9e40-495efcb1d3c3)
 SHAREPOINT_PROJECT (fe71d6c3-a2ea-4499-9778-da042bf08063)
 SHAREPOINT ONLINE (PLAN 2) (5dbe027f-2339-4123-9542-606e4d348a72)
@@ -2785,7 +2777,7 @@
     <t>4b244418-9658-4451-a2b8-b5e2b364e9bd</t>
   </si>
   <si>
-    <t>ONEDRIVE_BASIC (da792a53-cbc0-4184-a10d-e544dd34b3c1)
+    <t xml:space="preserve">ONEDRIVE_BASIC (da792a53-cbc0-4184-a10d-e544dd34b3c1)
 VISIOONLINE (2bdbaf8f-738f-4ac7-9234-3c3ee2ce7d0f)</t>
   </si>
   <si>
@@ -2798,7 +2790,7 @@
     <t>c5928f49-12ba-48f7-ada3-0d743a3601d5</t>
   </si>
   <si>
-    <t>ONEDRIVE_BASIC (da792a53-cbc0-4184-a10d-e544dd34b3c1)
+    <t xml:space="preserve">ONEDRIVE_BASIC (da792a53-cbc0-4184-a10d-e544dd34b3c1)
 VISIO_CLIENT_SUBSCRIPTION (663a804f-1c30-4ff0-9915-9db84f0d1cea)
 VISIOONLINE (2bdbaf8f-738f-4ac7-9234-3c3ee2ce7d0f)</t>
   </si>
@@ -2827,12 +2819,12 @@
     <t>488ba24a-39a9-4473-8ee5-19291e71b002</t>
   </si>
   <si>
-    <t>EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)
+    <t xml:space="preserve">EXCHANGE_S_FOUNDATION (113feb6c-3fe4-4440-bddc-54d774bf0318)
 WINDEFATP (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
 Virtualization Rights for Windows 10 (E3/E5+VDA) (e7c91390-7625-45be-94e0-e16907e03118)</t>
   </si>
   <si>
-    <t>Exchange Foundation (113feb6c-3fe4-4440-bddc-54d774bf0318)
+    <t xml:space="preserve">Exchange Foundation (113feb6c-3fe4-4440-bddc-54d774bf0318)
 Microsoft Defender Advanced Threat Protection (871d91ec-ec1a-452b-a83f-bd76c7d770ef)
 Windows 10 Enterprise (New) (e7c91390-7625-45be-94e0-e16907e03118)</t>
   </si>
@@ -2852,16 +2844,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2882,2186 +2870,1869 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L108"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="67.85546875" customWidth="1"/>
-    <col min="5" max="5" width="88.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="409.5">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="0" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="409.5">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="0" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="0" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="0" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="390">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="0" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="0" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="0" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="0" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="0" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="0" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="0" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="0" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="0" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="0" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="0" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="0" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="0" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+    <row r="66">
+      <c r="A66" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="0" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="409.5">
-      <c r="A68" t="s">
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="0" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="0" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="0" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="0" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="0" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="0" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="0" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="0" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="0" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="0" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="0" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="0" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="0" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="0" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="0" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="0" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="0" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="0" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="0" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="0" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="0" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="0" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
+    <row r="92">
+      <c r="A92" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="0" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
+    <row r="93">
+      <c r="A93" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="0" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
+    <row r="94">
+      <c r="A94" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="0" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
+    <row r="95">
+      <c r="A95" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="0" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
+    <row r="96">
+      <c r="A96" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="0" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
+    <row r="97">
+      <c r="A97" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="0" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
+    <row r="98">
+      <c r="A98" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="0" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
+    <row r="99">
+      <c r="A99" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="0" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
+    <row r="100">
+      <c r="A100" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="0" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
+    <row r="101">
+      <c r="A101" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="0" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
+    <row r="102">
+      <c r="A102" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="0" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
+    <row r="103">
+      <c r="A103" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="0" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
+    <row r="104">
+      <c r="A104" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="0" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
+    <row r="105">
+      <c r="A105" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="0" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
+    <row r="106">
+      <c r="A106" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="0" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
+    <row r="107">
+      <c r="A107" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="0" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
+    <row r="108">
+      <c r="A108" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="0" t="s">
         <v>504</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>